--- a/51-Notes/Notes2021-2022.xlsx
+++ b/51-Notes/Notes2021-2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\lycée\PSI-2021\51-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD8EEEF-D519-4BBF-8429-081EC4A92070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8579FE5-026C-46E4-AB1B-E2F6CB6A9F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="768" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2818,6 +2818,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2887,7 +2888,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -9277,22 +9277,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -9310,13 +9310,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -10897,76 +10897,76 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="J4" s="253" t="s">
+      <c r="J4" s="254" t="s">
         <v>151</v>
       </c>
-      <c r="K4" s="253"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="254" t="s">
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="255" t="s">
         <v>150</v>
       </c>
-      <c r="N4" s="255"/>
-      <c r="O4" s="256"/>
-      <c r="P4" s="253" t="s">
+      <c r="N4" s="256"/>
+      <c r="O4" s="257"/>
+      <c r="P4" s="254" t="s">
         <v>151</v>
       </c>
-      <c r="Q4" s="253"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="254" t="s">
+      <c r="Q4" s="254"/>
+      <c r="R4" s="254"/>
+      <c r="S4" s="255" t="s">
         <v>150</v>
       </c>
-      <c r="T4" s="255"/>
-      <c r="U4" s="255"/>
-      <c r="V4" s="255"/>
-      <c r="W4" s="255"/>
-      <c r="X4" s="256"/>
-      <c r="Y4" s="253" t="s">
+      <c r="T4" s="256"/>
+      <c r="U4" s="256"/>
+      <c r="V4" s="256"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="257"/>
+      <c r="Y4" s="254" t="s">
         <v>151</v>
       </c>
-      <c r="Z4" s="253"/>
-      <c r="AA4" s="253"/>
-      <c r="AB4" s="257" t="s">
+      <c r="Z4" s="254"/>
+      <c r="AA4" s="254"/>
+      <c r="AB4" s="258" t="s">
         <v>150</v>
       </c>
-      <c r="AC4" s="258"/>
-      <c r="AD4" s="258"/>
-      <c r="AE4" s="258"/>
-      <c r="AF4" s="258"/>
-      <c r="AG4" s="258"/>
-      <c r="AL4" s="249" t="s">
+      <c r="AC4" s="259"/>
+      <c r="AD4" s="259"/>
+      <c r="AE4" s="259"/>
+      <c r="AF4" s="259"/>
+      <c r="AG4" s="259"/>
+      <c r="AL4" s="250" t="s">
         <v>151</v>
       </c>
-      <c r="AM4" s="250"/>
-      <c r="AN4" s="250"/>
-      <c r="AO4" s="250"/>
-      <c r="AP4" s="250"/>
-      <c r="AQ4" s="250"/>
-      <c r="AR4" s="250"/>
-      <c r="AS4" s="250"/>
-      <c r="AT4" s="250"/>
-      <c r="AU4" s="250"/>
-      <c r="AV4" s="250"/>
-      <c r="AW4" s="250"/>
-      <c r="AX4" s="250"/>
-      <c r="AY4" s="250"/>
-      <c r="AZ4" s="251" t="s">
+      <c r="AM4" s="251"/>
+      <c r="AN4" s="251"/>
+      <c r="AO4" s="251"/>
+      <c r="AP4" s="251"/>
+      <c r="AQ4" s="251"/>
+      <c r="AR4" s="251"/>
+      <c r="AS4" s="251"/>
+      <c r="AT4" s="251"/>
+      <c r="AU4" s="251"/>
+      <c r="AV4" s="251"/>
+      <c r="AW4" s="251"/>
+      <c r="AX4" s="251"/>
+      <c r="AY4" s="251"/>
+      <c r="AZ4" s="252" t="s">
         <v>150</v>
       </c>
-      <c r="BA4" s="252"/>
-      <c r="BB4" s="252"/>
-      <c r="BC4" s="252"/>
-      <c r="BD4" s="252"/>
-      <c r="BE4" s="252"/>
-      <c r="BF4" s="252"/>
-      <c r="BG4" s="252"/>
-      <c r="BH4" s="252"/>
-      <c r="BI4" s="252"/>
-      <c r="BJ4" s="252"/>
-      <c r="BK4" s="252"/>
-      <c r="BL4" s="252"/>
-      <c r="BM4" s="252"/>
-      <c r="BN4" s="252"/>
-      <c r="BO4" s="252"/>
+      <c r="BA4" s="253"/>
+      <c r="BB4" s="253"/>
+      <c r="BC4" s="253"/>
+      <c r="BD4" s="253"/>
+      <c r="BE4" s="253"/>
+      <c r="BF4" s="253"/>
+      <c r="BG4" s="253"/>
+      <c r="BH4" s="253"/>
+      <c r="BI4" s="253"/>
+      <c r="BJ4" s="253"/>
+      <c r="BK4" s="253"/>
+      <c r="BL4" s="253"/>
+      <c r="BM4" s="253"/>
+      <c r="BN4" s="253"/>
+      <c r="BO4" s="253"/>
     </row>
     <row r="5" spans="1:67" s="58" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="58" t="s">
@@ -21623,31 +21623,31 @@
       <c r="E1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="261" t="str">
+      <c r="G1" s="262" t="str">
         <f ca="1">"DS n°"&amp;MID(A1,3,2)&amp;" de Mathématiques en PSI"</f>
         <v>DS n°3 de Mathématiques en PSI</v>
       </c>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="261"/>
-      <c r="Q1" s="261"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="261"/>
-      <c r="V1" s="261"/>
-      <c r="W1" s="261"/>
-      <c r="X1" s="261"/>
-      <c r="Y1" s="261"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="261"/>
-      <c r="AB1" s="261"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="262"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
     </row>
     <row r="2" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="72">
@@ -21668,28 +21668,28 @@
         <f t="shared" ref="E2:E30" ca="1" si="0">IF(C2="ABS","",RANK(C2,C$2:C$30))</f>
         <v>11</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="261"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="262"/>
+      <c r="AB2" s="262"/>
     </row>
     <row r="3" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="55">
@@ -21710,28 +21710,28 @@
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="261"/>
-      <c r="U3" s="261"/>
-      <c r="V3" s="261"/>
-      <c r="W3" s="261"/>
-      <c r="X3" s="261"/>
-      <c r="Y3" s="261"/>
-      <c r="Z3" s="261"/>
-      <c r="AA3" s="261"/>
-      <c r="AB3" s="261"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="262"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="262"/>
     </row>
     <row r="4" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="72">
@@ -21752,28 +21752,28 @@
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="262"/>
+      <c r="Z4" s="262"/>
+      <c r="AA4" s="262"/>
+      <c r="AB4" s="262"/>
     </row>
     <row r="5" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55">
@@ -22427,17 +22427,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="N29" s="262" t="s">
+      <c r="N29" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="264"/>
-      <c r="R29" s="268">
+      <c r="O29" s="264"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="269">
         <f ca="1">AVERAGE(D2:D30)</f>
         <v>9.0035714285714299</v>
       </c>
-      <c r="S29" s="269"/>
+      <c r="S29" s="270"/>
     </row>
     <row r="30" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="72">
@@ -22458,12 +22458,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
-      <c r="N30" s="265"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="267"/>
-      <c r="R30" s="270"/>
-      <c r="S30" s="271"/>
+      <c r="N30" s="266"/>
+      <c r="O30" s="267"/>
+      <c r="P30" s="267"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="271"/>
+      <c r="S30" s="272"/>
     </row>
     <row r="31" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="55">
@@ -26868,31 +26868,31 @@
       <c r="E1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="261" t="str">
+      <c r="G1" s="262" t="str">
         <f ca="1">"DS n°"&amp;MID(A1,3,2)&amp;" de Mathématiques en PSI"</f>
         <v>DS n°4 de Mathématiques en PSI</v>
       </c>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="261"/>
-      <c r="Q1" s="261"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="261"/>
-      <c r="V1" s="261"/>
-      <c r="W1" s="261"/>
-      <c r="X1" s="261"/>
-      <c r="Y1" s="261"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="261"/>
-      <c r="AB1" s="261"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="262"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
     </row>
     <row r="2" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="72">
@@ -26913,28 +26913,28 @@
         <f t="shared" ref="E2:E30" ca="1" si="0">IF(C2="ABS","",RANK(C2,C$2:C$30))</f>
         <v>1</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="261"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="262"/>
+      <c r="AB2" s="262"/>
     </row>
     <row r="3" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="55">
@@ -26955,28 +26955,28 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="261"/>
-      <c r="U3" s="261"/>
-      <c r="V3" s="261"/>
-      <c r="W3" s="261"/>
-      <c r="X3" s="261"/>
-      <c r="Y3" s="261"/>
-      <c r="Z3" s="261"/>
-      <c r="AA3" s="261"/>
-      <c r="AB3" s="261"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="262"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="262"/>
     </row>
     <row r="4" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="72">
@@ -26997,28 +26997,28 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="262"/>
+      <c r="Z4" s="262"/>
+      <c r="AA4" s="262"/>
+      <c r="AB4" s="262"/>
     </row>
     <row r="5" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55">
@@ -27672,17 +27672,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="N29" s="262" t="s">
+      <c r="N29" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="264"/>
-      <c r="R29" s="268">
+      <c r="O29" s="264"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="269">
         <f ca="1">AVERAGE(D2:D30)</f>
         <v>0</v>
       </c>
-      <c r="S29" s="269"/>
+      <c r="S29" s="270"/>
     </row>
     <row r="30" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="72">
@@ -27703,12 +27703,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="N30" s="265"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="267"/>
-      <c r="R30" s="270"/>
-      <c r="S30" s="271"/>
+      <c r="N30" s="266"/>
+      <c r="O30" s="267"/>
+      <c r="P30" s="267"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="271"/>
+      <c r="S30" s="272"/>
     </row>
     <row r="31" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="55">
@@ -30831,31 +30831,31 @@
       <c r="E1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="261" t="str">
+      <c r="G1" s="262" t="str">
         <f ca="1">"CB n°"&amp;MID(A1,3,2)&amp;" de Mathématiques en PSI"</f>
         <v>CB n°1 de Mathématiques en PSI</v>
       </c>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="261"/>
-      <c r="Q1" s="261"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="261"/>
-      <c r="V1" s="261"/>
-      <c r="W1" s="261"/>
-      <c r="X1" s="261"/>
-      <c r="Y1" s="261"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="261"/>
-      <c r="AB1" s="261"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="262"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
     </row>
     <row r="2" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="72">
@@ -30876,28 +30876,28 @@
         <f t="shared" ref="E2:E30" ca="1" si="0">IF(C2="ABS","",RANK(C2,C$2:C$30))</f>
         <v/>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="261"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="262"/>
+      <c r="AB2" s="262"/>
     </row>
     <row r="3" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="55">
@@ -30916,30 +30916,30 @@
       </c>
       <c r="E3" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="261"/>
-      <c r="U3" s="261"/>
-      <c r="V3" s="261"/>
-      <c r="W3" s="261"/>
-      <c r="X3" s="261"/>
-      <c r="Y3" s="261"/>
-      <c r="Z3" s="261"/>
-      <c r="AA3" s="261"/>
-      <c r="AB3" s="261"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="262"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="262"/>
     </row>
     <row r="4" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="72">
@@ -30958,30 +30958,30 @@
       </c>
       <c r="E4" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
+        <v>7</v>
+      </c>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="262"/>
+      <c r="Z4" s="262"/>
+      <c r="AA4" s="262"/>
+      <c r="AB4" s="262"/>
     </row>
     <row r="5" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55">
@@ -31000,7 +31000,7 @@
       </c>
       <c r="E5" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31020,7 +31020,7 @@
       </c>
       <c r="E6" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" s="133" t="s">
         <v>9</v>
@@ -31106,22 +31106,22 @@
       </c>
       <c r="E7" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="136" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="137">
         <f t="array" aca="1" ref="H7" ca="1">SUM(($D2:$D30&gt;=H6)*($D2:$D30&lt;H6+1)*1)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="137">
         <f t="array" aca="1" ref="I7" ca="1">SUM(($D2:$D30&gt;=I6)*($D2:$D30&lt;I6+1)*1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="137">
         <f t="array" aca="1" ref="J7" ca="1">SUM(($D2:$D30&gt;=J6)*($D2:$D30&lt;J6+1)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="137">
         <f t="array" aca="1" ref="K7" ca="1">SUM(($D2:$D30&gt;=K6)*($D2:$D30&lt;K6+1)*1)</f>
@@ -31129,11 +31129,11 @@
       </c>
       <c r="L7" s="137">
         <f t="array" aca="1" ref="L7" ca="1">SUM(($D2:$D30&gt;=L6)*($D2:$D30&lt;L6+1)*1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="137">
         <f t="array" aca="1" ref="M7" ca="1">SUM(($D2:$D30&gt;=M6)*($D2:$D30&lt;M6+1)*1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="137">
         <f t="array" aca="1" ref="N7" ca="1">SUM(($D2:$D30&gt;=N6)*($D2:$D30&lt;N6+1)*1)</f>
@@ -31157,7 +31157,7 @@
       </c>
       <c r="S7" s="137">
         <f t="array" aca="1" ref="S7" ca="1">SUM(($D2:$D30&gt;=S6)*($D2:$D30&lt;S6+1)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="137">
         <f t="array" aca="1" ref="T7" ca="1">SUM(($D2:$D30&gt;=T6)*($D2:$D30&lt;T6+1)*1)</f>
@@ -31165,7 +31165,7 @@
       </c>
       <c r="U7" s="137">
         <f t="array" aca="1" ref="U7" ca="1">SUM(($D2:$D30&gt;=U6)*($D2:$D30&lt;U6+1)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="137">
         <f t="array" aca="1" ref="V7" ca="1">SUM(($D2:$D30&gt;=V6)*($D2:$D30&lt;V6+1)*1)</f>
@@ -31205,15 +31205,15 @@
       </c>
       <c r="C8" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>3.25</v>
+        <v>11.25</v>
       </c>
       <c r="D8" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5999999999999996</v>
+        <v>13.7</v>
       </c>
       <c r="E8" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31225,15 +31225,15 @@
       </c>
       <c r="C9" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="D9" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31245,15 +31245,15 @@
       </c>
       <c r="C10" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="D10" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="E10" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31265,15 +31265,15 @@
       </c>
       <c r="C11" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8</v>
+        <v>11.6</v>
       </c>
       <c r="E11" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31285,15 +31285,15 @@
       </c>
       <c r="C12" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D12" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31305,15 +31305,15 @@
       </c>
       <c r="C13" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E13" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31333,7 +31333,7 @@
       </c>
       <c r="E14" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31373,7 +31373,7 @@
       </c>
       <c r="E16" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31393,7 +31393,7 @@
       </c>
       <c r="E17" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31433,7 +31433,7 @@
       </c>
       <c r="E19" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31453,7 +31453,7 @@
       </c>
       <c r="E20" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31473,7 +31473,7 @@
       </c>
       <c r="E21" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31513,7 +31513,7 @@
       </c>
       <c r="E23" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31533,7 +31533,7 @@
       </c>
       <c r="E24" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31593,7 +31593,7 @@
       </c>
       <c r="E27" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31613,7 +31613,7 @@
       </c>
       <c r="E28" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31633,19 +31633,19 @@
       </c>
       <c r="E29" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N29" s="262" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="264"/>
-      <c r="R29" s="268">
+      <c r="O29" s="264"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="269">
         <f ca="1">AVERAGE(D2:D30)</f>
-        <v>1.4130434782608696</v>
-      </c>
-      <c r="S29" s="269"/>
+        <v>2.6217391304347828</v>
+      </c>
+      <c r="S29" s="270"/>
     </row>
     <row r="30" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="72">
@@ -31664,14 +31664,14 @@
       </c>
       <c r="E30" s="153">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N30" s="265"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="267"/>
-      <c r="R30" s="270"/>
-      <c r="S30" s="271"/>
+        <v>17</v>
+      </c>
+      <c r="N30" s="266"/>
+      <c r="O30" s="267"/>
+      <c r="P30" s="267"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="271"/>
+      <c r="S30" s="272"/>
     </row>
     <row r="31" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="55">
@@ -31699,11 +31699,11 @@
       </c>
       <c r="C33" s="5">
         <f ca="1">MAX(C2:C30)</f>
-        <v>4</v>
+        <v>11.25</v>
       </c>
       <c r="D33" s="6">
         <f ca="1">MAX(D2:D30)</f>
-        <v>5.6</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -31731,11 +31731,11 @@
       </c>
       <c r="C35" s="5">
         <f ca="1">AVERAGE(C2:C30)</f>
-        <v>1</v>
+        <v>1.9565217391304348</v>
       </c>
       <c r="D35" s="6">
         <f ca="1">AVERAGE(D2:D30)</f>
-        <v>1.4130434782608696</v>
+        <v>2.6217391304347828</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31850,11 +31850,11 @@
   <dimension ref="A1:AI75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="P17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C38" sqref="C38"/>
       <selection pane="topRight" activeCell="C38" sqref="C38"/>
       <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="N17:AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.53125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -32018,27 +32018,27 @@
       </c>
       <c r="K2" s="40">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>11.25</v>
       </c>
       <c r="L2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="M2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N2" s="40">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>9</v>
       </c>
       <c r="O2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="40">
         <f t="shared" si="0"/>
@@ -32105,7 +32105,7 @@
       </c>
       <c r="AH2" s="11">
         <f t="shared" ref="AH2:AH6" si="1">AVERAGE(E2:AG2)</f>
-        <v>1</v>
+        <v>1.9565217391304348</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -32273,27 +32273,27 @@
       </c>
       <c r="K4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="M4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="O4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="39">
         <f t="shared" si="3"/>
@@ -32365,7 +32365,7 @@
       </c>
       <c r="AH4" s="11">
         <f t="shared" si="1"/>
-        <v>0.14655172413793102</v>
+        <v>0.90517241379310343</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="118" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -33301,12 +33301,24 @@
       <c r="J17" s="35">
         <v>0.25</v>
       </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="43"/>
+      <c r="K17" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M17" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="35">
+        <v>0</v>
+      </c>
+      <c r="P17" s="43">
+        <v>0</v>
+      </c>
       <c r="Q17" s="43"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
@@ -33326,7 +33338,7 @@
       <c r="AG17" s="35"/>
       <c r="AH17" s="103">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33352,12 +33364,24 @@
       <c r="J18" s="101">
         <v>0.5</v>
       </c>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="102"/>
+      <c r="K18" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="O18" s="101">
+        <v>0</v>
+      </c>
+      <c r="P18" s="102">
+        <v>0.25</v>
+      </c>
       <c r="Q18" s="102"/>
       <c r="R18" s="101"/>
       <c r="S18" s="101"/>
@@ -33377,7 +33401,7 @@
       <c r="AG18" s="101"/>
       <c r="AH18" s="103">
         <f t="shared" si="6"/>
-        <v>0.1875</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33403,12 +33427,24 @@
       <c r="J19" s="101">
         <v>0</v>
       </c>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="102"/>
+      <c r="K19" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="101">
+        <v>0</v>
+      </c>
+      <c r="M19" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="101">
+        <v>0</v>
+      </c>
+      <c r="O19" s="101">
+        <v>0</v>
+      </c>
+      <c r="P19" s="102">
+        <v>0</v>
+      </c>
       <c r="Q19" s="102"/>
       <c r="R19" s="101"/>
       <c r="S19" s="101"/>
@@ -33428,7 +33464,7 @@
       <c r="AG19" s="101"/>
       <c r="AH19" s="103">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33450,12 +33486,24 @@
       </c>
       <c r="I20" s="101"/>
       <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="102"/>
+      <c r="K20" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="M20" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="101">
+        <v>0</v>
+      </c>
+      <c r="P20" s="102">
+        <v>0</v>
+      </c>
       <c r="Q20" s="102"/>
       <c r="R20" s="101"/>
       <c r="S20" s="101"/>
@@ -33475,7 +33523,7 @@
       <c r="AG20" s="101"/>
       <c r="AH20" s="103">
         <f t="shared" si="6"/>
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="21" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33497,11 +33545,21 @@
       </c>
       <c r="I21" s="101"/>
       <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
+      <c r="K21" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="M21" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="O21" s="101">
+        <v>0</v>
+      </c>
       <c r="P21" s="102"/>
       <c r="Q21" s="102"/>
       <c r="R21" s="101"/>
@@ -33522,7 +33580,7 @@
       <c r="AG21" s="101"/>
       <c r="AH21" s="103">
         <f t="shared" si="6"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33546,12 +33604,24 @@
         <v>0.25</v>
       </c>
       <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="102"/>
+      <c r="K22" s="101">
+        <v>0</v>
+      </c>
+      <c r="L22" s="101">
+        <v>0</v>
+      </c>
+      <c r="M22" s="101">
+        <v>0.75</v>
+      </c>
+      <c r="N22" s="101">
+        <v>1</v>
+      </c>
+      <c r="O22" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="P22" s="102">
+        <v>0</v>
+      </c>
       <c r="Q22" s="102"/>
       <c r="R22" s="101"/>
       <c r="S22" s="101"/>
@@ -33571,7 +33641,7 @@
       <c r="AG22" s="101"/>
       <c r="AH22" s="103">
         <f t="shared" ref="AH22:AH26" si="10">AVERAGE(E22:AG22)</f>
-        <v>0.16666666666666666</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="23" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33593,12 +33663,22 @@
       </c>
       <c r="I23" s="101"/>
       <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
+      <c r="K23" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="L23" s="101">
+        <v>0</v>
+      </c>
+      <c r="M23" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="N23" s="101">
+        <v>1</v>
+      </c>
       <c r="O23" s="101"/>
-      <c r="P23" s="102"/>
+      <c r="P23" s="102">
+        <v>0.25</v>
+      </c>
       <c r="Q23" s="102"/>
       <c r="R23" s="101"/>
       <c r="S23" s="101"/>
@@ -33618,7 +33698,7 @@
       <c r="AG23" s="101"/>
       <c r="AH23" s="103">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33640,12 +33720,20 @@
       </c>
       <c r="I24" s="101"/>
       <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
+      <c r="K24" s="101">
+        <v>0</v>
+      </c>
       <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
+      <c r="M24" s="101">
+        <v>0</v>
+      </c>
+      <c r="N24" s="101">
+        <v>0</v>
+      </c>
       <c r="O24" s="101"/>
-      <c r="P24" s="102"/>
+      <c r="P24" s="102">
+        <v>0</v>
+      </c>
       <c r="Q24" s="102"/>
       <c r="R24" s="101"/>
       <c r="S24" s="101"/>
@@ -33675,7 +33763,7 @@
       </c>
       <c r="C25" s="102"/>
       <c r="D25" s="100">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="101"/>
       <c r="F25" s="101"/>
@@ -33687,10 +33775,18 @@
       </c>
       <c r="I25" s="101"/>
       <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
+      <c r="K25" s="101">
+        <v>1</v>
+      </c>
+      <c r="L25" s="101">
+        <v>0</v>
+      </c>
+      <c r="M25" s="101">
+        <v>0</v>
+      </c>
+      <c r="N25" s="101">
+        <v>1</v>
+      </c>
       <c r="O25" s="101"/>
       <c r="P25" s="102"/>
       <c r="Q25" s="102"/>
@@ -33712,7 +33808,7 @@
       <c r="AG25" s="101"/>
       <c r="AH25" s="103">
         <f t="shared" si="10"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="26" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33734,10 +33830,18 @@
       </c>
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
+      <c r="K26" s="101">
+        <v>0</v>
+      </c>
+      <c r="L26" s="101">
+        <v>0</v>
+      </c>
+      <c r="M26" s="101">
+        <v>0</v>
+      </c>
+      <c r="N26" s="101">
+        <v>0.5</v>
+      </c>
       <c r="O26" s="101"/>
       <c r="P26" s="102"/>
       <c r="Q26" s="102"/>
@@ -33759,7 +33863,7 @@
       <c r="AG26" s="101"/>
       <c r="AH26" s="103">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="27" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33769,7 +33873,7 @@
       </c>
       <c r="C27" s="102"/>
       <c r="D27" s="100">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="101"/>
       <c r="F27" s="101"/>
@@ -33781,12 +33885,20 @@
       </c>
       <c r="I27" s="101"/>
       <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
+      <c r="K27" s="101">
+        <v>1</v>
+      </c>
+      <c r="L27" s="101">
+        <v>0</v>
+      </c>
       <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
+      <c r="N27" s="101">
+        <v>1</v>
+      </c>
       <c r="O27" s="101"/>
-      <c r="P27" s="102"/>
+      <c r="P27" s="102">
+        <v>0</v>
+      </c>
       <c r="Q27" s="102"/>
       <c r="R27" s="101"/>
       <c r="S27" s="101"/>
@@ -33806,7 +33918,7 @@
       <c r="AG27" s="101"/>
       <c r="AH27" s="103">
         <f t="shared" ref="AH27:AH30" si="11">AVERAGE(E27:AG27)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33815,7 +33927,7 @@
         <v>438</v>
       </c>
       <c r="C28" s="102"/>
-      <c r="D28" s="272">
+      <c r="D28" s="249">
         <v>0.25</v>
       </c>
       <c r="E28" s="101"/>
@@ -33830,10 +33942,18 @@
         <v>0</v>
       </c>
       <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
+      <c r="K28" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="L28" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="M28" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="N28" s="101">
+        <v>0.25</v>
+      </c>
       <c r="O28" s="101"/>
       <c r="P28" s="102"/>
       <c r="Q28" s="102"/>
@@ -33855,7 +33975,7 @@
       <c r="AG28" s="101"/>
       <c r="AH28" s="103">
         <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
+        <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="29" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33877,10 +33997,16 @@
       </c>
       <c r="I29" s="101"/>
       <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
+      <c r="K29" s="101">
+        <v>0.75</v>
+      </c>
+      <c r="L29" s="101">
+        <v>0.25</v>
+      </c>
       <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
+      <c r="N29" s="101">
+        <v>0.5</v>
+      </c>
       <c r="O29" s="101"/>
       <c r="P29" s="102"/>
       <c r="Q29" s="102"/>
@@ -33902,7 +34028,7 @@
       <c r="AG29" s="101"/>
       <c r="AH29" s="103">
         <f t="shared" si="11"/>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33924,10 +34050,16 @@
       </c>
       <c r="I30" s="101"/>
       <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
+      <c r="K30" s="101">
+        <v>1</v>
+      </c>
+      <c r="L30" s="101">
+        <v>0</v>
+      </c>
       <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
+      <c r="N30" s="101">
+        <v>0.5</v>
+      </c>
       <c r="O30" s="101"/>
       <c r="P30" s="102"/>
       <c r="Q30" s="102"/>
@@ -33949,7 +34081,7 @@
       <c r="AG30" s="101"/>
       <c r="AH30" s="103">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="31" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -33969,10 +34101,16 @@
       </c>
       <c r="I31" s="101"/>
       <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
+      <c r="K31" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="101">
+        <v>0</v>
+      </c>
       <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
+      <c r="N31" s="101">
+        <v>0</v>
+      </c>
       <c r="O31" s="101"/>
       <c r="P31" s="102"/>
       <c r="Q31" s="102"/>
@@ -33994,7 +34132,7 @@
       <c r="AG31" s="101"/>
       <c r="AH31" s="103">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="32" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -34014,12 +34152,18 @@
       </c>
       <c r="I32" s="101"/>
       <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
+      <c r="K32" s="101">
+        <v>0.5</v>
+      </c>
       <c r="L32" s="101"/>
       <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
+      <c r="N32" s="101">
+        <v>0.5</v>
+      </c>
       <c r="O32" s="101"/>
-      <c r="P32" s="102"/>
+      <c r="P32" s="102">
+        <v>0</v>
+      </c>
       <c r="Q32" s="102"/>
       <c r="R32" s="101"/>
       <c r="S32" s="101"/>
@@ -34039,7 +34183,7 @@
       <c r="AG32" s="101"/>
       <c r="AH32" s="103">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -34059,10 +34203,16 @@
       </c>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
+      <c r="K33" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="L33" s="101">
+        <v>0</v>
+      </c>
       <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
+      <c r="N33" s="101">
+        <v>0</v>
+      </c>
       <c r="O33" s="101"/>
       <c r="P33" s="102"/>
       <c r="Q33" s="102"/>
@@ -34084,7 +34234,7 @@
       <c r="AG33" s="101"/>
       <c r="AH33" s="103">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="34" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -34104,7 +34254,9 @@
       </c>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
+      <c r="K34" s="101">
+        <v>0</v>
+      </c>
       <c r="L34" s="101"/>
       <c r="M34" s="101"/>
       <c r="N34" s="101"/>
@@ -34150,7 +34302,9 @@
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="N35" s="30">
+        <v>0</v>
+      </c>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
@@ -34170,9 +34324,9 @@
       <c r="AE35" s="30"/>
       <c r="AF35" s="30"/>
       <c r="AG35" s="30"/>
-      <c r="AH35" s="11" t="e">
+      <c r="AH35" s="11">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:34" s="217" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -35890,31 +36044,31 @@
       <c r="E1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="261" t="str">
+      <c r="G1" s="262" t="str">
         <f ca="1">"CB n°"&amp;MID(A1,3,2)&amp;" d'Informatiques en PSI"</f>
         <v>CB n°2 d'Informatiques en PSI</v>
       </c>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="261"/>
-      <c r="Q1" s="261"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="261"/>
-      <c r="V1" s="261"/>
-      <c r="W1" s="261"/>
-      <c r="X1" s="261"/>
-      <c r="Y1" s="261"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="261"/>
-      <c r="AB1" s="261"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="262"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
     </row>
     <row r="2" spans="1:28" ht="16.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="72">
@@ -35935,28 +36089,28 @@
         <f t="shared" ref="E2:E30" ca="1" si="0">IF(C2="ABS","",RANK(C2,C$2:C$30))</f>
         <v>6</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="261"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="262"/>
+      <c r="AB2" s="262"/>
     </row>
     <row r="3" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="55">
@@ -35977,28 +36131,28 @@
         <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="261"/>
-      <c r="U3" s="261"/>
-      <c r="V3" s="261"/>
-      <c r="W3" s="261"/>
-      <c r="X3" s="261"/>
-      <c r="Y3" s="261"/>
-      <c r="Z3" s="261"/>
-      <c r="AA3" s="261"/>
-      <c r="AB3" s="261"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="262"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="262"/>
     </row>
     <row r="4" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="72">
@@ -36019,28 +36173,28 @@
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="262"/>
+      <c r="Z4" s="262"/>
+      <c r="AA4" s="262"/>
+      <c r="AB4" s="262"/>
     </row>
     <row r="5" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55">
@@ -36694,17 +36848,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="N29" s="262" t="s">
+      <c r="N29" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="264"/>
-      <c r="R29" s="268">
+      <c r="O29" s="264"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="269">
         <f ca="1">AVERAGE(D2:D30)</f>
         <v>3.3259259259259255</v>
       </c>
-      <c r="S29" s="269"/>
+      <c r="S29" s="270"/>
     </row>
     <row r="30" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="72">
@@ -36725,12 +36879,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="N30" s="265"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="267"/>
-      <c r="R30" s="270"/>
-      <c r="S30" s="271"/>
+      <c r="N30" s="266"/>
+      <c r="O30" s="267"/>
+      <c r="P30" s="267"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="271"/>
+      <c r="S30" s="272"/>
     </row>
     <row r="31" spans="1:19" ht="16.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="55">
@@ -43006,10 +43160,10 @@
       <c r="A2" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="259">
-        <v>1</v>
-      </c>
-      <c r="C2" s="260" t="s">
+      <c r="B2" s="260">
+        <v>1</v>
+      </c>
+      <c r="C2" s="261" t="s">
         <v>161</v>
       </c>
     </row>
@@ -43017,24 +43171,24 @@
       <c r="A3" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="260"/>
+      <c r="B3" s="260"/>
+      <c r="C3" s="261"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="259"/>
-      <c r="C4" s="260"/>
+      <c r="B4" s="260"/>
+      <c r="C4" s="261"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="259">
+      <c r="B5" s="260">
         <v>2</v>
       </c>
-      <c r="C5" s="260" t="s">
+      <c r="C5" s="261" t="s">
         <v>162</v>
       </c>
     </row>
@@ -43042,24 +43196,24 @@
       <c r="A6" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="259"/>
-      <c r="C6" s="260"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="261"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
+      <c r="B7" s="260"/>
+      <c r="C7" s="261"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="259">
+      <c r="B8" s="260">
         <v>3</v>
       </c>
-      <c r="C8" s="260" t="s">
+      <c r="C8" s="261" t="s">
         <v>163</v>
       </c>
     </row>
@@ -43067,24 +43221,24 @@
       <c r="A9" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="261"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="261"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="259">
+      <c r="B11" s="260">
         <v>4</v>
       </c>
-      <c r="C11" s="260" t="s">
+      <c r="C11" s="261" t="s">
         <v>164</v>
       </c>
     </row>
@@ -43092,24 +43246,24 @@
       <c r="A12" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
+      <c r="B12" s="260"/>
+      <c r="C12" s="261"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
+      <c r="B13" s="260"/>
+      <c r="C13" s="261"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="259">
+      <c r="B14" s="260">
         <v>5</v>
       </c>
-      <c r="C14" s="260" t="s">
+      <c r="C14" s="261" t="s">
         <v>165</v>
       </c>
     </row>
@@ -43117,24 +43271,24 @@
       <c r="A15" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
+      <c r="B15" s="260"/>
+      <c r="C15" s="261"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="259"/>
-      <c r="C16" s="260"/>
+      <c r="B16" s="260"/>
+      <c r="C16" s="261"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>208</v>
       </c>
-      <c r="B17" s="259">
+      <c r="B17" s="260">
         <v>6</v>
       </c>
-      <c r="C17" s="260" t="s">
+      <c r="C17" s="261" t="s">
         <v>166</v>
       </c>
     </row>
@@ -43142,24 +43296,24 @@
       <c r="A18" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="261"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>210</v>
       </c>
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
+      <c r="B19" s="260"/>
+      <c r="C19" s="261"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="259">
+      <c r="B20" s="260">
         <v>7</v>
       </c>
-      <c r="C20" s="260" t="s">
+      <c r="C20" s="261" t="s">
         <v>167</v>
       </c>
     </row>
@@ -43167,24 +43321,24 @@
       <c r="A21" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
+      <c r="B21" s="260"/>
+      <c r="C21" s="261"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="259"/>
-      <c r="C22" s="260"/>
+      <c r="B22" s="260"/>
+      <c r="C22" s="261"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="259">
+      <c r="B23" s="260">
         <v>8</v>
       </c>
-      <c r="C23" s="260" t="s">
+      <c r="C23" s="261" t="s">
         <v>168</v>
       </c>
     </row>
@@ -43192,24 +43346,24 @@
       <c r="A24" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="259"/>
-      <c r="C24" s="260"/>
+      <c r="B24" s="260"/>
+      <c r="C24" s="261"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="259"/>
-      <c r="C25" s="260"/>
+      <c r="B25" s="260"/>
+      <c r="C25" s="261"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="259">
+      <c r="B26" s="260">
         <v>9</v>
       </c>
-      <c r="C26" s="260" t="s">
+      <c r="C26" s="261" t="s">
         <v>169</v>
       </c>
     </row>
@@ -43217,24 +43371,24 @@
       <c r="A27" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
+      <c r="B27" s="260"/>
+      <c r="C27" s="261"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>210</v>
       </c>
-      <c r="B28" s="259"/>
-      <c r="C28" s="260"/>
+      <c r="B28" s="260"/>
+      <c r="C28" s="261"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>208</v>
       </c>
-      <c r="B29" s="259">
+      <c r="B29" s="260">
         <v>10</v>
       </c>
-      <c r="C29" s="260" t="s">
+      <c r="C29" s="261" t="s">
         <v>170</v>
       </c>
     </row>
@@ -43242,24 +43396,24 @@
       <c r="A30" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="259"/>
-      <c r="C30" s="260"/>
+      <c r="B30" s="260"/>
+      <c r="C30" s="261"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="259"/>
-      <c r="C31" s="260"/>
+      <c r="B31" s="260"/>
+      <c r="C31" s="261"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="259">
+      <c r="B32" s="260">
         <v>11</v>
       </c>
-      <c r="C32" s="260" t="s">
+      <c r="C32" s="261" t="s">
         <v>171</v>
       </c>
     </row>
@@ -43267,24 +43421,24 @@
       <c r="A33" t="s">
         <v>209</v>
       </c>
-      <c r="B33" s="259"/>
-      <c r="C33" s="260"/>
+      <c r="B33" s="260"/>
+      <c r="C33" s="261"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="259"/>
-      <c r="C34" s="260"/>
+      <c r="B34" s="260"/>
+      <c r="C34" s="261"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="259">
+      <c r="B35" s="260">
         <v>12</v>
       </c>
-      <c r="C35" s="260" t="s">
+      <c r="C35" s="261" t="s">
         <v>172</v>
       </c>
     </row>
@@ -43292,24 +43446,24 @@
       <c r="A36" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="259"/>
-      <c r="C36" s="260"/>
+      <c r="B36" s="260"/>
+      <c r="C36" s="261"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="259"/>
-      <c r="C37" s="260"/>
+      <c r="B37" s="260"/>
+      <c r="C37" s="261"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>208</v>
       </c>
-      <c r="B38" s="259">
+      <c r="B38" s="260">
         <v>13</v>
       </c>
-      <c r="C38" s="260" t="s">
+      <c r="C38" s="261" t="s">
         <v>173</v>
       </c>
     </row>
@@ -43317,24 +43471,24 @@
       <c r="A39" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="259"/>
-      <c r="C39" s="260"/>
+      <c r="B39" s="260"/>
+      <c r="C39" s="261"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>210</v>
       </c>
-      <c r="B40" s="259"/>
-      <c r="C40" s="260"/>
+      <c r="B40" s="260"/>
+      <c r="C40" s="261"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="259">
+      <c r="B41" s="260">
         <v>14</v>
       </c>
-      <c r="C41" s="260" t="s">
+      <c r="C41" s="261" t="s">
         <v>174</v>
       </c>
     </row>
@@ -43342,24 +43496,24 @@
       <c r="A42" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="259"/>
-      <c r="C42" s="260"/>
+      <c r="B42" s="260"/>
+      <c r="C42" s="261"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>210</v>
       </c>
-      <c r="B43" s="259"/>
-      <c r="C43" s="260"/>
+      <c r="B43" s="260"/>
+      <c r="C43" s="261"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="259">
+      <c r="B44" s="260">
         <v>15</v>
       </c>
-      <c r="C44" s="260" t="s">
+      <c r="C44" s="261" t="s">
         <v>175</v>
       </c>
     </row>
@@ -43367,24 +43521,24 @@
       <c r="A45" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="259"/>
-      <c r="C45" s="260"/>
+      <c r="B45" s="260"/>
+      <c r="C45" s="261"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="259"/>
-      <c r="C46" s="260"/>
+      <c r="B46" s="260"/>
+      <c r="C46" s="261"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="259">
+      <c r="B47" s="260">
         <v>16</v>
       </c>
-      <c r="C47" s="260" t="s">
+      <c r="C47" s="261" t="s">
         <v>176</v>
       </c>
     </row>
@@ -43392,24 +43546,24 @@
       <c r="A48" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="259"/>
-      <c r="C48" s="260"/>
+      <c r="B48" s="260"/>
+      <c r="C48" s="261"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>210</v>
       </c>
-      <c r="B49" s="259"/>
-      <c r="C49" s="260"/>
+      <c r="B49" s="260"/>
+      <c r="C49" s="261"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="259">
+      <c r="B50" s="260">
         <v>17</v>
       </c>
-      <c r="C50" s="260" t="s">
+      <c r="C50" s="261" t="s">
         <v>177</v>
       </c>
     </row>
@@ -43417,24 +43571,24 @@
       <c r="A51" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="259"/>
-      <c r="C51" s="260"/>
+      <c r="B51" s="260"/>
+      <c r="C51" s="261"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>210</v>
       </c>
-      <c r="B52" s="259"/>
-      <c r="C52" s="260"/>
+      <c r="B52" s="260"/>
+      <c r="C52" s="261"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="259">
+      <c r="B53" s="260">
         <v>18</v>
       </c>
-      <c r="C53" s="260" t="s">
+      <c r="C53" s="261" t="s">
         <v>178</v>
       </c>
     </row>
@@ -43442,24 +43596,24 @@
       <c r="A54" t="s">
         <v>209</v>
       </c>
-      <c r="B54" s="259"/>
-      <c r="C54" s="260"/>
+      <c r="B54" s="260"/>
+      <c r="C54" s="261"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>210</v>
       </c>
-      <c r="B55" s="259"/>
-      <c r="C55" s="260"/>
+      <c r="B55" s="260"/>
+      <c r="C55" s="261"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="259">
+      <c r="B56" s="260">
         <v>19</v>
       </c>
-      <c r="C56" s="260" t="s">
+      <c r="C56" s="261" t="s">
         <v>179</v>
       </c>
     </row>
@@ -43467,24 +43621,24 @@
       <c r="A57" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="259"/>
-      <c r="C57" s="260"/>
+      <c r="B57" s="260"/>
+      <c r="C57" s="261"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="259"/>
-      <c r="C58" s="260"/>
+      <c r="B58" s="260"/>
+      <c r="C58" s="261"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>208</v>
       </c>
-      <c r="B59" s="259">
+      <c r="B59" s="260">
         <v>20</v>
       </c>
-      <c r="C59" s="260" t="s">
+      <c r="C59" s="261" t="s">
         <v>180</v>
       </c>
     </row>
@@ -43492,24 +43646,24 @@
       <c r="A60" t="s">
         <v>209</v>
       </c>
-      <c r="B60" s="259"/>
-      <c r="C60" s="260"/>
+      <c r="B60" s="260"/>
+      <c r="C60" s="261"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>210</v>
       </c>
-      <c r="B61" s="259"/>
-      <c r="C61" s="260"/>
+      <c r="B61" s="260"/>
+      <c r="C61" s="261"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="259">
+      <c r="B62" s="260">
         <v>21</v>
       </c>
-      <c r="C62" s="260" t="s">
+      <c r="C62" s="261" t="s">
         <v>181</v>
       </c>
     </row>
@@ -43517,24 +43671,24 @@
       <c r="A63" t="s">
         <v>209</v>
       </c>
-      <c r="B63" s="259"/>
-      <c r="C63" s="260"/>
+      <c r="B63" s="260"/>
+      <c r="C63" s="261"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>210</v>
       </c>
-      <c r="B64" s="259"/>
-      <c r="C64" s="260"/>
+      <c r="B64" s="260"/>
+      <c r="C64" s="261"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="259">
+      <c r="B65" s="260">
         <v>22</v>
       </c>
-      <c r="C65" s="260" t="s">
+      <c r="C65" s="261" t="s">
         <v>182</v>
       </c>
     </row>
@@ -43542,24 +43696,24 @@
       <c r="A66" t="s">
         <v>209</v>
       </c>
-      <c r="B66" s="259"/>
-      <c r="C66" s="260"/>
+      <c r="B66" s="260"/>
+      <c r="C66" s="261"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>210</v>
       </c>
-      <c r="B67" s="259"/>
-      <c r="C67" s="260"/>
+      <c r="B67" s="260"/>
+      <c r="C67" s="261"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="259">
+      <c r="B68" s="260">
         <v>23</v>
       </c>
-      <c r="C68" s="260" t="s">
+      <c r="C68" s="261" t="s">
         <v>183</v>
       </c>
     </row>
@@ -43567,24 +43721,24 @@
       <c r="A69" t="s">
         <v>209</v>
       </c>
-      <c r="B69" s="259"/>
-      <c r="C69" s="260"/>
+      <c r="B69" s="260"/>
+      <c r="C69" s="261"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>210</v>
       </c>
-      <c r="B70" s="259"/>
-      <c r="C70" s="260"/>
+      <c r="B70" s="260"/>
+      <c r="C70" s="261"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>208</v>
       </c>
-      <c r="B71" s="259">
+      <c r="B71" s="260">
         <v>24</v>
       </c>
-      <c r="C71" s="260" t="s">
+      <c r="C71" s="261" t="s">
         <v>184</v>
       </c>
     </row>
@@ -43592,24 +43746,24 @@
       <c r="A72" t="s">
         <v>209</v>
       </c>
-      <c r="B72" s="259"/>
-      <c r="C72" s="260"/>
+      <c r="B72" s="260"/>
+      <c r="C72" s="261"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>210</v>
       </c>
-      <c r="B73" s="259"/>
-      <c r="C73" s="260"/>
+      <c r="B73" s="260"/>
+      <c r="C73" s="261"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>208</v>
       </c>
-      <c r="B74" s="259">
+      <c r="B74" s="260">
         <v>25</v>
       </c>
-      <c r="C74" s="260" t="s">
+      <c r="C74" s="261" t="s">
         <v>185</v>
       </c>
     </row>
@@ -43617,24 +43771,24 @@
       <c r="A75" t="s">
         <v>209</v>
       </c>
-      <c r="B75" s="259"/>
-      <c r="C75" s="260"/>
+      <c r="B75" s="260"/>
+      <c r="C75" s="261"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>210</v>
       </c>
-      <c r="B76" s="259"/>
-      <c r="C76" s="260"/>
+      <c r="B76" s="260"/>
+      <c r="C76" s="261"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>208</v>
       </c>
-      <c r="B77" s="259">
+      <c r="B77" s="260">
         <v>26</v>
       </c>
-      <c r="C77" s="260" t="s">
+      <c r="C77" s="261" t="s">
         <v>186</v>
       </c>
     </row>
@@ -43642,24 +43796,24 @@
       <c r="A78" t="s">
         <v>209</v>
       </c>
-      <c r="B78" s="259"/>
-      <c r="C78" s="260"/>
+      <c r="B78" s="260"/>
+      <c r="C78" s="261"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>210</v>
       </c>
-      <c r="B79" s="259"/>
-      <c r="C79" s="260"/>
+      <c r="B79" s="260"/>
+      <c r="C79" s="261"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="259">
+      <c r="B80" s="260">
         <v>27</v>
       </c>
-      <c r="C80" s="260" t="s">
+      <c r="C80" s="261" t="s">
         <v>187</v>
       </c>
     </row>
@@ -43667,24 +43821,24 @@
       <c r="A81" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="259"/>
-      <c r="C81" s="260"/>
+      <c r="B81" s="260"/>
+      <c r="C81" s="261"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>210</v>
       </c>
-      <c r="B82" s="259"/>
-      <c r="C82" s="260"/>
+      <c r="B82" s="260"/>
+      <c r="C82" s="261"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>208</v>
       </c>
-      <c r="B83" s="259">
+      <c r="B83" s="260">
         <v>28</v>
       </c>
-      <c r="C83" s="260" t="s">
+      <c r="C83" s="261" t="s">
         <v>188</v>
       </c>
     </row>
@@ -43692,24 +43846,24 @@
       <c r="A84" t="s">
         <v>209</v>
       </c>
-      <c r="B84" s="259"/>
-      <c r="C84" s="260"/>
+      <c r="B84" s="260"/>
+      <c r="C84" s="261"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>210</v>
       </c>
-      <c r="B85" s="259"/>
-      <c r="C85" s="260"/>
+      <c r="B85" s="260"/>
+      <c r="C85" s="261"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="259">
+      <c r="B86" s="260">
         <v>29</v>
       </c>
-      <c r="C86" s="260" t="s">
+      <c r="C86" s="261" t="s">
         <v>189</v>
       </c>
     </row>
@@ -43717,24 +43871,24 @@
       <c r="A87" t="s">
         <v>209</v>
       </c>
-      <c r="B87" s="259"/>
-      <c r="C87" s="260"/>
+      <c r="B87" s="260"/>
+      <c r="C87" s="261"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>210</v>
       </c>
-      <c r="B88" s="259"/>
-      <c r="C88" s="260"/>
+      <c r="B88" s="260"/>
+      <c r="C88" s="261"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="259">
+      <c r="B89" s="260">
         <v>30</v>
       </c>
-      <c r="C89" s="260" t="s">
+      <c r="C89" s="261" t="s">
         <v>190</v>
       </c>
     </row>
@@ -43742,24 +43896,24 @@
       <c r="A90" t="s">
         <v>209</v>
       </c>
-      <c r="B90" s="259"/>
-      <c r="C90" s="260"/>
+      <c r="B90" s="260"/>
+      <c r="C90" s="261"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>210</v>
       </c>
-      <c r="B91" s="259"/>
-      <c r="C91" s="260"/>
+      <c r="B91" s="260"/>
+      <c r="C91" s="261"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>208</v>
       </c>
-      <c r="B92" s="259">
+      <c r="B92" s="260">
         <v>31</v>
       </c>
-      <c r="C92" s="260" t="s">
+      <c r="C92" s="261" t="s">
         <v>191</v>
       </c>
     </row>
@@ -43767,24 +43921,24 @@
       <c r="A93" t="s">
         <v>209</v>
       </c>
-      <c r="B93" s="259"/>
-      <c r="C93" s="260"/>
+      <c r="B93" s="260"/>
+      <c r="C93" s="261"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>210</v>
       </c>
-      <c r="B94" s="259"/>
-      <c r="C94" s="260"/>
+      <c r="B94" s="260"/>
+      <c r="C94" s="261"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="259">
+      <c r="B95" s="260">
         <v>32</v>
       </c>
-      <c r="C95" s="260" t="s">
+      <c r="C95" s="261" t="s">
         <v>192</v>
       </c>
     </row>
@@ -43792,24 +43946,24 @@
       <c r="A96" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="259"/>
-      <c r="C96" s="260"/>
+      <c r="B96" s="260"/>
+      <c r="C96" s="261"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>210</v>
       </c>
-      <c r="B97" s="259"/>
-      <c r="C97" s="260"/>
+      <c r="B97" s="260"/>
+      <c r="C97" s="261"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="259">
+      <c r="B98" s="260">
         <v>33</v>
       </c>
-      <c r="C98" s="260" t="s">
+      <c r="C98" s="261" t="s">
         <v>193</v>
       </c>
     </row>
@@ -43817,24 +43971,24 @@
       <c r="A99" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="259"/>
-      <c r="C99" s="260"/>
+      <c r="B99" s="260"/>
+      <c r="C99" s="261"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>210</v>
       </c>
-      <c r="B100" s="259"/>
-      <c r="C100" s="260"/>
+      <c r="B100" s="260"/>
+      <c r="C100" s="261"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>208</v>
       </c>
-      <c r="B101" s="259">
+      <c r="B101" s="260">
         <v>34</v>
       </c>
-      <c r="C101" s="260" t="s">
+      <c r="C101" s="261" t="s">
         <v>194</v>
       </c>
     </row>
@@ -43842,24 +43996,24 @@
       <c r="A102" t="s">
         <v>209</v>
       </c>
-      <c r="B102" s="259"/>
-      <c r="C102" s="260"/>
+      <c r="B102" s="260"/>
+      <c r="C102" s="261"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="259"/>
-      <c r="C103" s="260"/>
+      <c r="B103" s="260"/>
+      <c r="C103" s="261"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" s="259">
+      <c r="B104" s="260">
         <v>35</v>
       </c>
-      <c r="C104" s="260" t="s">
+      <c r="C104" s="261" t="s">
         <v>195</v>
       </c>
     </row>
@@ -43867,24 +44021,24 @@
       <c r="A105" t="s">
         <v>209</v>
       </c>
-      <c r="B105" s="259"/>
-      <c r="C105" s="260"/>
+      <c r="B105" s="260"/>
+      <c r="C105" s="261"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="259"/>
-      <c r="C106" s="260"/>
+      <c r="B106" s="260"/>
+      <c r="C106" s="261"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>208</v>
       </c>
-      <c r="B107" s="259">
+      <c r="B107" s="260">
         <v>36</v>
       </c>
-      <c r="C107" s="260" t="s">
+      <c r="C107" s="261" t="s">
         <v>196</v>
       </c>
     </row>
@@ -43892,24 +44046,24 @@
       <c r="A108" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="259"/>
-      <c r="C108" s="260"/>
+      <c r="B108" s="260"/>
+      <c r="C108" s="261"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>210</v>
       </c>
-      <c r="B109" s="259"/>
-      <c r="C109" s="260"/>
+      <c r="B109" s="260"/>
+      <c r="C109" s="261"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>208</v>
       </c>
-      <c r="B110" s="259">
+      <c r="B110" s="260">
         <v>37</v>
       </c>
-      <c r="C110" s="260" t="s">
+      <c r="C110" s="261" t="s">
         <v>197</v>
       </c>
     </row>
@@ -43917,24 +44071,24 @@
       <c r="A111" t="s">
         <v>209</v>
       </c>
-      <c r="B111" s="259"/>
-      <c r="C111" s="260"/>
+      <c r="B111" s="260"/>
+      <c r="C111" s="261"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>210</v>
       </c>
-      <c r="B112" s="259"/>
-      <c r="C112" s="260"/>
+      <c r="B112" s="260"/>
+      <c r="C112" s="261"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>208</v>
       </c>
-      <c r="B113" s="259">
+      <c r="B113" s="260">
         <v>38</v>
       </c>
-      <c r="C113" s="260" t="s">
+      <c r="C113" s="261" t="s">
         <v>198</v>
       </c>
     </row>
@@ -43942,24 +44096,24 @@
       <c r="A114" t="s">
         <v>209</v>
       </c>
-      <c r="B114" s="259"/>
-      <c r="C114" s="260"/>
+      <c r="B114" s="260"/>
+      <c r="C114" s="261"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>210</v>
       </c>
-      <c r="B115" s="259"/>
-      <c r="C115" s="260"/>
+      <c r="B115" s="260"/>
+      <c r="C115" s="261"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>208</v>
       </c>
-      <c r="B116" s="259">
+      <c r="B116" s="260">
         <v>39</v>
       </c>
-      <c r="C116" s="260" t="s">
+      <c r="C116" s="261" t="s">
         <v>199</v>
       </c>
     </row>
@@ -43967,24 +44121,24 @@
       <c r="A117" t="s">
         <v>209</v>
       </c>
-      <c r="B117" s="259"/>
-      <c r="C117" s="260"/>
+      <c r="B117" s="260"/>
+      <c r="C117" s="261"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>210</v>
       </c>
-      <c r="B118" s="259"/>
-      <c r="C118" s="260"/>
+      <c r="B118" s="260"/>
+      <c r="C118" s="261"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>208</v>
       </c>
-      <c r="B119" s="259">
+      <c r="B119" s="260">
         <v>40</v>
       </c>
-      <c r="C119" s="260" t="s">
+      <c r="C119" s="261" t="s">
         <v>200</v>
       </c>
     </row>
@@ -43992,24 +44146,24 @@
       <c r="A120" t="s">
         <v>209</v>
       </c>
-      <c r="B120" s="259"/>
-      <c r="C120" s="260"/>
+      <c r="B120" s="260"/>
+      <c r="C120" s="261"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>210</v>
       </c>
-      <c r="B121" s="259"/>
-      <c r="C121" s="260"/>
+      <c r="B121" s="260"/>
+      <c r="C121" s="261"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>208</v>
       </c>
-      <c r="B122" s="259">
+      <c r="B122" s="260">
         <v>41</v>
       </c>
-      <c r="C122" s="260" t="s">
+      <c r="C122" s="261" t="s">
         <v>201</v>
       </c>
     </row>
@@ -44017,24 +44171,24 @@
       <c r="A123" t="s">
         <v>209</v>
       </c>
-      <c r="B123" s="259"/>
-      <c r="C123" s="260"/>
+      <c r="B123" s="260"/>
+      <c r="C123" s="261"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>210</v>
       </c>
-      <c r="B124" s="259"/>
-      <c r="C124" s="260"/>
+      <c r="B124" s="260"/>
+      <c r="C124" s="261"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>208</v>
       </c>
-      <c r="B125" s="259">
+      <c r="B125" s="260">
         <v>42</v>
       </c>
-      <c r="C125" s="260" t="s">
+      <c r="C125" s="261" t="s">
         <v>202</v>
       </c>
     </row>
@@ -44042,24 +44196,24 @@
       <c r="A126" t="s">
         <v>209</v>
       </c>
-      <c r="B126" s="259"/>
-      <c r="C126" s="260"/>
+      <c r="B126" s="260"/>
+      <c r="C126" s="261"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="259"/>
-      <c r="C127" s="260"/>
+      <c r="B127" s="260"/>
+      <c r="C127" s="261"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>208</v>
       </c>
-      <c r="B128" s="259">
+      <c r="B128" s="260">
         <v>43</v>
       </c>
-      <c r="C128" s="260" t="s">
+      <c r="C128" s="261" t="s">
         <v>203</v>
       </c>
     </row>
@@ -44067,24 +44221,24 @@
       <c r="A129" t="s">
         <v>209</v>
       </c>
-      <c r="B129" s="259"/>
-      <c r="C129" s="260"/>
+      <c r="B129" s="260"/>
+      <c r="C129" s="261"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="259"/>
-      <c r="C130" s="260"/>
+      <c r="B130" s="260"/>
+      <c r="C130" s="261"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>208</v>
       </c>
-      <c r="B131" s="259">
+      <c r="B131" s="260">
         <v>44</v>
       </c>
-      <c r="C131" s="260" t="s">
+      <c r="C131" s="261" t="s">
         <v>204</v>
       </c>
     </row>
@@ -44092,24 +44246,24 @@
       <c r="A132" t="s">
         <v>209</v>
       </c>
-      <c r="B132" s="259"/>
-      <c r="C132" s="260"/>
+      <c r="B132" s="260"/>
+      <c r="C132" s="261"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>210</v>
       </c>
-      <c r="B133" s="259"/>
-      <c r="C133" s="260"/>
+      <c r="B133" s="260"/>
+      <c r="C133" s="261"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>208</v>
       </c>
-      <c r="B134" s="259">
+      <c r="B134" s="260">
         <v>45</v>
       </c>
-      <c r="C134" s="260" t="s">
+      <c r="C134" s="261" t="s">
         <v>205</v>
       </c>
     </row>
@@ -44117,24 +44271,24 @@
       <c r="A135" t="s">
         <v>209</v>
       </c>
-      <c r="B135" s="259"/>
-      <c r="C135" s="260"/>
+      <c r="B135" s="260"/>
+      <c r="C135" s="261"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>210</v>
       </c>
-      <c r="B136" s="259"/>
-      <c r="C136" s="260"/>
+      <c r="B136" s="260"/>
+      <c r="C136" s="261"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>208</v>
       </c>
-      <c r="B137" s="259">
+      <c r="B137" s="260">
         <v>46</v>
       </c>
-      <c r="C137" s="260" t="s">
+      <c r="C137" s="261" t="s">
         <v>206</v>
       </c>
     </row>
@@ -44142,24 +44296,24 @@
       <c r="A138" t="s">
         <v>209</v>
       </c>
-      <c r="B138" s="259"/>
-      <c r="C138" s="260"/>
+      <c r="B138" s="260"/>
+      <c r="C138" s="261"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>210</v>
       </c>
-      <c r="B139" s="259"/>
-      <c r="C139" s="260"/>
+      <c r="B139" s="260"/>
+      <c r="C139" s="261"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>208</v>
       </c>
-      <c r="B140" s="259">
+      <c r="B140" s="260">
         <v>47</v>
       </c>
-      <c r="C140" s="260" t="s">
+      <c r="C140" s="261" t="s">
         <v>207</v>
       </c>
     </row>
@@ -44167,15 +44321,15 @@
       <c r="A141" t="s">
         <v>209</v>
       </c>
-      <c r="B141" s="259"/>
-      <c r="C141" s="260"/>
+      <c r="B141" s="260"/>
+      <c r="C141" s="261"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>210</v>
       </c>
-      <c r="B142" s="259"/>
-      <c r="C142" s="260"/>
+      <c r="B142" s="260"/>
+      <c r="C142" s="261"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -44336,31 +44490,31 @@
       <c r="E1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="261" t="str">
+      <c r="G1" s="262" t="str">
         <f ca="1">"DS n°"&amp;MID(A1,3,2)&amp;" de Mathématiques en PSI"</f>
         <v>DS n°1 de Mathématiques en PSI</v>
       </c>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="261"/>
-      <c r="Q1" s="261"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="261"/>
-      <c r="V1" s="261"/>
-      <c r="W1" s="261"/>
-      <c r="X1" s="261"/>
-      <c r="Y1" s="261"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="261"/>
-      <c r="AB1" s="261"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="262"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
     </row>
     <row r="2" spans="1:28" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="72">
@@ -44381,28 +44535,28 @@
         <f t="shared" ref="E2:E30" ca="1" si="1">IF(C2="ABS","",RANK(C2,C$2:C$30))</f>
         <v>8</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="261"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="262"/>
+      <c r="AB2" s="262"/>
     </row>
     <row r="3" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="55">
@@ -44423,28 +44577,28 @@
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="261"/>
-      <c r="U3" s="261"/>
-      <c r="V3" s="261"/>
-      <c r="W3" s="261"/>
-      <c r="X3" s="261"/>
-      <c r="Y3" s="261"/>
-      <c r="Z3" s="261"/>
-      <c r="AA3" s="261"/>
-      <c r="AB3" s="261"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="262"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="262"/>
     </row>
     <row r="4" spans="1:28" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="72">
@@ -44465,28 +44619,28 @@
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="262"/>
+      <c r="Z4" s="262"/>
+      <c r="AA4" s="262"/>
+      <c r="AB4" s="262"/>
     </row>
     <row r="5" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55">
@@ -45140,17 +45294,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="N29" s="262" t="s">
+      <c r="N29" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="264"/>
-      <c r="R29" s="268">
+      <c r="O29" s="264"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="269">
         <f ca="1">AVERAGE(D2:D30)</f>
         <v>7.875</v>
       </c>
-      <c r="S29" s="269"/>
+      <c r="S29" s="270"/>
     </row>
     <row r="30" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="72">
@@ -45171,12 +45325,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="N30" s="265"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="267"/>
-      <c r="R30" s="270"/>
-      <c r="S30" s="271"/>
+      <c r="N30" s="266"/>
+      <c r="O30" s="267"/>
+      <c r="P30" s="267"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="271"/>
+      <c r="S30" s="272"/>
     </row>
     <row r="31" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="55">
@@ -51446,31 +51600,31 @@
       <c r="E1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="261" t="str">
+      <c r="G1" s="262" t="str">
         <f ca="1">"DS n°"&amp;MID(A1,3,1)&amp;" d'Informatique en PSI"</f>
         <v>DS n°1 d'Informatique en PSI</v>
       </c>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="261"/>
-      <c r="Q1" s="261"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="261"/>
-      <c r="V1" s="261"/>
-      <c r="W1" s="261"/>
-      <c r="X1" s="261"/>
-      <c r="Y1" s="261"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="261"/>
-      <c r="AB1" s="261"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="262"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
     </row>
     <row r="2" spans="1:28" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="72">
@@ -51491,28 +51645,28 @@
         <f t="shared" ref="E2:E30" ca="1" si="1">IF(C2="ABS","",RANK(C2,C$2:C$30))</f>
         <v>3</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="261"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="262"/>
+      <c r="AB2" s="262"/>
     </row>
     <row r="3" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="55">
@@ -51533,28 +51687,28 @@
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="261"/>
-      <c r="U3" s="261"/>
-      <c r="V3" s="261"/>
-      <c r="W3" s="261"/>
-      <c r="X3" s="261"/>
-      <c r="Y3" s="261"/>
-      <c r="Z3" s="261"/>
-      <c r="AA3" s="261"/>
-      <c r="AB3" s="261"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="262"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="262"/>
     </row>
     <row r="4" spans="1:28" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="72">
@@ -51575,28 +51729,28 @@
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="262"/>
+      <c r="Z4" s="262"/>
+      <c r="AA4" s="262"/>
+      <c r="AB4" s="262"/>
     </row>
     <row r="5" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55">
@@ -52250,17 +52404,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="N29" s="262" t="s">
+      <c r="N29" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="264"/>
-      <c r="R29" s="268">
+      <c r="O29" s="264"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="269">
         <f ca="1">AVERAGE(D2:D30)</f>
         <v>8.0357142857142865</v>
       </c>
-      <c r="S29" s="269"/>
+      <c r="S29" s="270"/>
     </row>
     <row r="30" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="72">
@@ -52281,12 +52435,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="N30" s="265"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="267"/>
-      <c r="R30" s="270"/>
-      <c r="S30" s="271"/>
+      <c r="N30" s="266"/>
+      <c r="O30" s="267"/>
+      <c r="P30" s="267"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="271"/>
+      <c r="S30" s="272"/>
     </row>
     <row r="31" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="55">
@@ -54586,31 +54740,31 @@
       <c r="E1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="261" t="str">
+      <c r="G1" s="262" t="str">
         <f ca="1">"DS n°"&amp;MID(A1,3,2)&amp;" de Mathématiques en PSI"</f>
         <v>DS n°2 de Mathématiques en PSI</v>
       </c>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="261"/>
-      <c r="Q1" s="261"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="261"/>
-      <c r="T1" s="261"/>
-      <c r="U1" s="261"/>
-      <c r="V1" s="261"/>
-      <c r="W1" s="261"/>
-      <c r="X1" s="261"/>
-      <c r="Y1" s="261"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="261"/>
-      <c r="AB1" s="261"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="262"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
     </row>
     <row r="2" spans="1:28" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="72">
@@ -54631,28 +54785,28 @@
         <f t="shared" ref="E2:E30" ca="1" si="1">IF(C2="ABS","",RANK(C2,C$2:C$30))</f>
         <v>7</v>
       </c>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="261"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="262"/>
+      <c r="AB2" s="262"/>
     </row>
     <row r="3" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="55">
@@ -54673,28 +54827,28 @@
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="261"/>
-      <c r="U3" s="261"/>
-      <c r="V3" s="261"/>
-      <c r="W3" s="261"/>
-      <c r="X3" s="261"/>
-      <c r="Y3" s="261"/>
-      <c r="Z3" s="261"/>
-      <c r="AA3" s="261"/>
-      <c r="AB3" s="261"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="262"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="262"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="262"/>
     </row>
     <row r="4" spans="1:28" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="72">
@@ -54715,28 +54869,28 @@
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
-      <c r="J4" s="261"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="261"/>
-      <c r="V4" s="261"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="261"/>
-      <c r="Z4" s="261"/>
-      <c r="AA4" s="261"/>
-      <c r="AB4" s="261"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="262"/>
+      <c r="N4" s="262"/>
+      <c r="O4" s="262"/>
+      <c r="P4" s="262"/>
+      <c r="Q4" s="262"/>
+      <c r="R4" s="262"/>
+      <c r="S4" s="262"/>
+      <c r="T4" s="262"/>
+      <c r="U4" s="262"/>
+      <c r="V4" s="262"/>
+      <c r="W4" s="262"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="262"/>
+      <c r="Z4" s="262"/>
+      <c r="AA4" s="262"/>
+      <c r="AB4" s="262"/>
     </row>
     <row r="5" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55">
@@ -55389,17 +55543,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="N29" s="262" t="s">
+      <c r="N29" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="264"/>
-      <c r="R29" s="268">
+      <c r="O29" s="264"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="269">
         <f ca="1">AVERAGE(D2:D30)</f>
         <v>8.6862068965517238</v>
       </c>
-      <c r="S29" s="269"/>
+      <c r="S29" s="270"/>
     </row>
     <row r="30" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="72">
@@ -55420,12 +55574,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
-      <c r="N30" s="265"/>
-      <c r="O30" s="266"/>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="267"/>
-      <c r="R30" s="270"/>
-      <c r="S30" s="271"/>
+      <c r="N30" s="266"/>
+      <c r="O30" s="267"/>
+      <c r="P30" s="267"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="271"/>
+      <c r="S30" s="272"/>
     </row>
     <row r="31" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="55">

--- a/51-Notes/Notes2021-2022.xlsx
+++ b/51-Notes/Notes2021-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\lycée\PSI-2021\51-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8579FE5-026C-46E4-AB1B-E2F6CB6A9F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A830217-84FB-4B9F-B52E-A3B9F018BE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="768" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2140" yWindow="-19150" windowWidth="28190" windowHeight="15830" tabRatio="768" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bilan" sheetId="9" r:id="rId1"/>
@@ -9277,31 +9277,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -9310,25 +9310,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -10798,12 +10798,12 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:BQ41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.9" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10814,8 +10814,8 @@
     <col min="4" max="5" width="5.59765625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="3.46484375" customWidth="1"/>
     <col min="7" max="7" width="3.46484375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.59765625" customWidth="1"/>
-    <col min="9" max="9" width="5.59765625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" customWidth="1"/>
+    <col min="9" max="9" width="2.53125" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" customWidth="1"/>
     <col min="11" max="11" width="5.33203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="5.33203125" customWidth="1"/>
@@ -30916,7 +30916,7 @@
       </c>
       <c r="E3" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="262"/>
       <c r="H3" s="262"/>
@@ -30950,15 +30950,15 @@
       </c>
       <c r="C4" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="D4" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E4" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G4" s="262"/>
       <c r="H4" s="262"/>
@@ -30992,15 +30992,15 @@
       </c>
       <c r="C5" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="D5" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="E5" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31020,7 +31020,7 @@
       </c>
       <c r="E6" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="133" t="s">
         <v>9</v>
@@ -31098,46 +31098,46 @@
       </c>
       <c r="C7" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="D7" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
+        <v>8.1</v>
       </c>
       <c r="E7" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" s="136" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="137">
         <f t="array" aca="1" ref="H7" ca="1">SUM(($D2:$D30&gt;=H6)*($D2:$D30&lt;H6+1)*1)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I7" s="137">
         <f t="array" aca="1" ref="I7" ca="1">SUM(($D2:$D30&gt;=I6)*($D2:$D30&lt;I6+1)*1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="137">
         <f t="array" aca="1" ref="J7" ca="1">SUM(($D2:$D30&gt;=J6)*($D2:$D30&lt;J6+1)*1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="137">
         <f t="array" aca="1" ref="K7" ca="1">SUM(($D2:$D30&gt;=K6)*($D2:$D30&lt;K6+1)*1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="137">
         <f t="array" aca="1" ref="L7" ca="1">SUM(($D2:$D30&gt;=L6)*($D2:$D30&lt;L6+1)*1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="137">
         <f t="array" aca="1" ref="M7" ca="1">SUM(($D2:$D30&gt;=M6)*($D2:$D30&lt;M6+1)*1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="137">
         <f t="array" aca="1" ref="N7" ca="1">SUM(($D2:$D30&gt;=N6)*($D2:$D30&lt;N6+1)*1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="137">
         <f t="array" aca="1" ref="O7" ca="1">SUM(($D2:$D30&gt;=O6)*($D2:$D30&lt;O6+1)*1)</f>
@@ -31145,7 +31145,7 @@
       </c>
       <c r="P7" s="137">
         <f t="array" aca="1" ref="P7" ca="1">SUM(($D2:$D30&gt;=P6)*($D2:$D30&lt;P6+1)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="137">
         <f t="array" aca="1" ref="Q7" ca="1">SUM(($D2:$D30&gt;=Q6)*($D2:$D30&lt;Q6+1)*1)</f>
@@ -31157,19 +31157,19 @@
       </c>
       <c r="S7" s="137">
         <f t="array" aca="1" ref="S7" ca="1">SUM(($D2:$D30&gt;=S6)*($D2:$D30&lt;S6+1)*1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="137">
         <f t="array" aca="1" ref="T7" ca="1">SUM(($D2:$D30&gt;=T6)*($D2:$D30&lt;T6+1)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="137">
         <f t="array" aca="1" ref="U7" ca="1">SUM(($D2:$D30&gt;=U6)*($D2:$D30&lt;U6+1)*1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" s="137">
         <f t="array" aca="1" ref="V7" ca="1">SUM(($D2:$D30&gt;=V6)*($D2:$D30&lt;V6+1)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="137">
         <f t="array" aca="1" ref="W7" ca="1">SUM(($D2:$D30&gt;=W6)*($D2:$D30&lt;W6+1)*1)</f>
@@ -31177,11 +31177,11 @@
       </c>
       <c r="X7" s="137">
         <f t="array" aca="1" ref="X7" ca="1">SUM(($D2:$D30&gt;=X6)*($D2:$D30&lt;X6+1)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="137">
         <f t="array" aca="1" ref="Y7" ca="1">SUM(($D2:$D30&gt;=Y6)*($D2:$D30&lt;Y6+1)*1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="137">
         <f t="array" aca="1" ref="Z7" ca="1">SUM(($D2:$D30&gt;=Z6)*($D2:$D30&lt;Z6+1)*1)</f>
@@ -31205,15 +31205,15 @@
       </c>
       <c r="C8" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="D8" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>13.7</v>
+        <v>14.799999999999999</v>
       </c>
       <c r="E8" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31225,15 +31225,15 @@
       </c>
       <c r="C9" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="D9" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="E9" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31245,15 +31245,15 @@
       </c>
       <c r="C10" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>3.75</v>
+        <v>14.5</v>
       </c>
       <c r="D10" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E10" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31265,15 +31265,15 @@
       </c>
       <c r="C11" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>11.6</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E11" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31293,7 +31293,7 @@
       </c>
       <c r="E12" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31305,15 +31305,15 @@
       </c>
       <c r="C13" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="E13" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31325,15 +31325,15 @@
       </c>
       <c r="C14" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>11.5</v>
       </c>
       <c r="D14" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>13.9</v>
       </c>
       <c r="E14" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31365,15 +31365,15 @@
       </c>
       <c r="C16" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="D16" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="E16" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31385,15 +31385,15 @@
       </c>
       <c r="C17" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="D17" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="E17" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31425,15 +31425,15 @@
       </c>
       <c r="C19" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
+        <v>12.5</v>
       </c>
       <c r="E19" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31445,15 +31445,15 @@
       </c>
       <c r="C20" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>4.75</v>
       </c>
       <c r="D20" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="E20" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31465,11 +31465,11 @@
       </c>
       <c r="C21" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>4.25</v>
       </c>
       <c r="D21" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="E21" s="149">
         <f t="shared" ca="1" si="0"/>
@@ -31505,15 +31505,15 @@
       </c>
       <c r="C23" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="D23" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E23" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31525,15 +31525,15 @@
       </c>
       <c r="C24" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D24" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E24" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31585,15 +31585,15 @@
       </c>
       <c r="C27" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E27" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31605,15 +31605,15 @@
       </c>
       <c r="C28" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="D28" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
+        <v>13.4</v>
       </c>
       <c r="E28" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -31625,15 +31625,15 @@
       </c>
       <c r="C29" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="D29" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="E29" s="149">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N29" s="263" t="s">
         <v>4</v>
@@ -31643,7 +31643,7 @@
       <c r="Q29" s="265"/>
       <c r="R29" s="269">
         <f ca="1">AVERAGE(D2:D30)</f>
-        <v>2.6217391304347828</v>
+        <v>6.5347826086956537</v>
       </c>
       <c r="S29" s="270"/>
     </row>
@@ -31656,15 +31656,15 @@
       </c>
       <c r="C30" s="151">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="D30" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="E30" s="153">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N30" s="266"/>
       <c r="O30" s="267"/>
@@ -31699,11 +31699,11 @@
       </c>
       <c r="C33" s="5">
         <f ca="1">MAX(C2:C30)</f>
-        <v>11.25</v>
+        <v>16</v>
       </c>
       <c r="D33" s="6">
         <f ca="1">MAX(D2:D30)</f>
-        <v>13.7</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -31715,11 +31715,11 @@
       </c>
       <c r="C34" s="5">
         <f ca="1">MIN(C2:C30)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D34" s="6">
         <f ca="1">MIN(D2:D30)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -31731,11 +31731,11 @@
       </c>
       <c r="C35" s="5">
         <f ca="1">AVERAGE(C2:C30)</f>
-        <v>1.9565217391304348</v>
+        <v>5.1630434782608692</v>
       </c>
       <c r="D35" s="6">
         <f ca="1">AVERAGE(D2:D30)</f>
-        <v>2.6217391304347828</v>
+        <v>6.5347826086956537</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31850,11 +31850,11 @@
   <dimension ref="A1:AI75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="P17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="AD36" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C38" sqref="C38"/>
       <selection pane="topRight" activeCell="C38" sqref="C38"/>
       <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="N17:AG35"/>
+      <selection pane="bottomRight" activeCell="AE53" sqref="AE53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.53125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -31865,7 +31865,8 @@
     <col min="4" max="4" width="5.73046875" style="9" customWidth="1"/>
     <col min="5" max="5" width="5.73046875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.796875" customWidth="1"/>
-    <col min="7" max="17" width="6.19921875" customWidth="1"/>
+    <col min="7" max="16" width="6.19921875" customWidth="1"/>
+    <col min="17" max="17" width="6.19921875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="6.265625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="6.265625" customWidth="1"/>
     <col min="20" max="20" width="6.19921875" customWidth="1"/>
@@ -31978,7 +31979,7 @@
       </c>
       <c r="AI1" s="91">
         <f>MAX(E8:AG73)</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="8" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -31991,7 +31992,7 @@
       </c>
       <c r="D2" s="40">
         <f t="shared" ref="D2:AG2" si="0">SUM(D3:D6)</f>
-        <v>22</v>
+        <v>39.5</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>373</v>
@@ -32002,11 +32003,11 @@
       </c>
       <c r="G2" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H2" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="I2" s="40">
         <f t="shared" si="0"/>
@@ -32014,23 +32015,23 @@
       </c>
       <c r="J2" s="40">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="K2" s="40">
         <f t="shared" si="0"/>
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="L2" s="40">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="M2" s="40">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>14.5</v>
       </c>
       <c r="N2" s="40">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O2" s="40">
         <f t="shared" si="0"/>
@@ -32038,48 +32039,48 @@
       </c>
       <c r="P2" s="40">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="40">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>11.5</v>
       </c>
       <c r="R2" s="40" t="s">
         <v>373</v>
       </c>
       <c r="S2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U2" s="40" t="s">
         <v>373</v>
       </c>
       <c r="V2" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W2" s="40">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>4.75</v>
       </c>
       <c r="X2" s="40">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>4.25</v>
       </c>
       <c r="Y2" s="40" t="s">
         <v>373</v>
       </c>
       <c r="Z2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AA2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AB2" s="40" t="s">
         <v>373</v>
@@ -32089,23 +32090,23 @@
       </c>
       <c r="AD2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE2" s="40">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="AF2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AG2" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AH2" s="11">
         <f t="shared" ref="AH2:AH6" si="1">AVERAGE(E2:AG2)</f>
-        <v>1.9565217391304348</v>
+        <v>5.1630434782608692</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -32297,7 +32298,7 @@
       </c>
       <c r="Q4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R4" s="39">
         <f t="shared" si="3"/>
@@ -32305,11 +32306,11 @@
       </c>
       <c r="S4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="39">
         <f t="shared" si="3"/>
@@ -32317,15 +32318,15 @@
       </c>
       <c r="V4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="W4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y4" s="39">
         <f t="shared" si="3"/>
@@ -32333,7 +32334,7 @@
       </c>
       <c r="Z4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AA4" s="39">
         <f t="shared" si="3"/>
@@ -32349,23 +32350,23 @@
       </c>
       <c r="AD4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AE4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG4" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="11">
         <f t="shared" si="1"/>
-        <v>0.90517241379310343</v>
+        <v>1.4913793103448276</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="118" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -32376,7 +32377,7 @@
       </c>
       <c r="D5" s="128">
         <f t="shared" ref="D5:AG5" si="4">SUM(D36:D62)</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="E5" s="128">
         <f t="shared" si="4"/>
@@ -32388,11 +32389,11 @@
       </c>
       <c r="G5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I5" s="128">
         <f t="shared" si="4"/>
@@ -32400,23 +32401,23 @@
       </c>
       <c r="J5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="N5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O5" s="128">
         <f t="shared" si="4"/>
@@ -32424,11 +32425,11 @@
       </c>
       <c r="P5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="R5" s="128">
         <f t="shared" si="4"/>
@@ -32436,11 +32437,11 @@
       </c>
       <c r="S5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U5" s="128">
         <f t="shared" si="4"/>
@@ -32448,15 +32449,15 @@
       </c>
       <c r="V5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y5" s="128">
         <f t="shared" si="4"/>
@@ -32464,11 +32465,11 @@
       </c>
       <c r="Z5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AB5" s="128">
         <f t="shared" si="4"/>
@@ -32480,23 +32481,23 @@
       </c>
       <c r="AD5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AE5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AF5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG5" s="128">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH5" s="117">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9568965517241379</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="125" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -32632,7 +32633,7 @@
       <c r="A7" s="165"/>
       <c r="C7" s="114">
         <f>MAX(E7:AG7)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44" t="str">
@@ -32641,52 +32642,49 @@
       </c>
       <c r="F7" s="44">
         <f>IF(F2="ABS","",1+MAX(G7:$AH7))</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="44">
         <f>IF(G2="ABS","",1+MAX(H7:$AH7))</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="44">
         <f>IF(H2="ABS","",1+MAX(I7:$AH7))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="44">
         <f>IF(I2="ABS","",1+MAX(J7:$AH7))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="44">
         <f>IF(J2="ABS","",1+MAX(K7:$AH7))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="44">
         <f>IF(K2="ABS","",1+MAX(L7:$AH7))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="44">
         <f>IF(L2="ABS","",1+MAX(M7:$AH7))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="44">
         <f>IF(M2="ABS","",1+MAX(N7:$AH7))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" s="44">
         <f>IF(N2="ABS","",1+MAX(O7:$AH7))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="44">
         <f>IF(O2="ABS","",1+MAX(P7:$AH7))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P7" s="44">
         <f>IF(P2="ABS","",1+MAX(Q7:$AH7))</f>
-        <v>13</v>
-      </c>
-      <c r="Q7" s="44">
-        <f>IF(Q2="ABS","",1+MAX(R7:$AH7))</f>
         <v>12</v>
       </c>
+      <c r="Q7" s="44"/>
       <c r="R7" s="44" t="str">
         <f>IF(R2="ABS","",1+MAX(S7:$AH7))</f>
         <v/>
@@ -33274,7 +33272,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="228">
         <v>2</v>
       </c>
@@ -33319,29 +33317,53 @@
       <c r="P17" s="43">
         <v>0</v>
       </c>
-      <c r="Q17" s="43"/>
+      <c r="Q17" s="43">
+        <v>0.5</v>
+      </c>
       <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
+      <c r="S17" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="35">
+        <v>0</v>
+      </c>
       <c r="U17" s="43"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
+      <c r="V17" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="W17" s="35">
+        <v>0</v>
+      </c>
+      <c r="X17" s="35">
+        <v>0.25</v>
+      </c>
       <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
+      <c r="Z17" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="AA17" s="35">
+        <v>0</v>
+      </c>
       <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
+      <c r="AD17" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="AF17" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="AG17" s="35">
+        <v>0.25</v>
+      </c>
       <c r="AH17" s="103">
         <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.2391304347826087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="228"/>
       <c r="B18" s="100" t="s">
         <v>18</v>
@@ -33382,29 +33404,53 @@
       <c r="P18" s="102">
         <v>0.25</v>
       </c>
-      <c r="Q18" s="102"/>
+      <c r="Q18" s="102">
+        <v>0.5</v>
+      </c>
       <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
+      <c r="S18" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="T18" s="101">
+        <v>0.5</v>
+      </c>
       <c r="U18" s="102"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
+      <c r="V18" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="W18" s="101">
+        <v>0</v>
+      </c>
+      <c r="X18" s="101">
+        <v>0.25</v>
+      </c>
       <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="101"/>
+      <c r="Z18" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="AA18" s="101">
+        <v>0</v>
+      </c>
       <c r="AB18" s="101"/>
       <c r="AC18" s="101"/>
-      <c r="AD18" s="101"/>
-      <c r="AE18" s="101"/>
-      <c r="AF18" s="101"/>
-      <c r="AG18" s="101"/>
+      <c r="AD18" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="AG18" s="101">
+        <v>0.25</v>
+      </c>
       <c r="AH18" s="103">
         <f t="shared" si="6"/>
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="228"/>
       <c r="B19" s="100" t="s">
         <v>19</v>
@@ -33445,29 +33491,53 @@
       <c r="P19" s="102">
         <v>0</v>
       </c>
-      <c r="Q19" s="102"/>
+      <c r="Q19" s="102">
+        <v>0.25</v>
+      </c>
       <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
+      <c r="S19" s="101">
+        <v>0</v>
+      </c>
+      <c r="T19" s="101">
+        <v>0.25</v>
+      </c>
       <c r="U19" s="102"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
+      <c r="V19" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="W19" s="101">
+        <v>0</v>
+      </c>
+      <c r="X19" s="101">
+        <v>0</v>
+      </c>
       <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="101"/>
+      <c r="Z19" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="101">
+        <v>0</v>
+      </c>
       <c r="AB19" s="101"/>
       <c r="AC19" s="101"/>
-      <c r="AD19" s="101"/>
-      <c r="AE19" s="101"/>
-      <c r="AF19" s="101"/>
-      <c r="AG19" s="101"/>
+      <c r="AD19" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="101">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="101">
+        <v>0</v>
+      </c>
       <c r="AH19" s="103">
         <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="228"/>
       <c r="B20" s="100" t="s">
         <v>20</v>
@@ -33504,29 +33574,49 @@
       <c r="P20" s="102">
         <v>0</v>
       </c>
-      <c r="Q20" s="102"/>
+      <c r="Q20" s="102">
+        <v>0.5</v>
+      </c>
       <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
+      <c r="S20" s="101">
+        <v>0</v>
+      </c>
       <c r="T20" s="101"/>
       <c r="U20" s="102"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
+      <c r="V20" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="W20" s="101">
+        <v>0</v>
+      </c>
+      <c r="X20" s="101">
+        <v>0</v>
+      </c>
       <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
+      <c r="Z20" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="101">
+        <v>0</v>
+      </c>
       <c r="AB20" s="101"/>
       <c r="AC20" s="101"/>
-      <c r="AD20" s="101"/>
+      <c r="AD20" s="101">
+        <v>0</v>
+      </c>
       <c r="AE20" s="101"/>
-      <c r="AF20" s="101"/>
-      <c r="AG20" s="101"/>
+      <c r="AF20" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="101">
+        <v>0</v>
+      </c>
       <c r="AH20" s="103">
         <f t="shared" si="6"/>
-        <v>0.28125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="228"/>
       <c r="B21" s="100" t="s">
         <v>21</v>
@@ -33561,29 +33651,47 @@
         <v>0</v>
       </c>
       <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
+      <c r="Q21" s="102">
+        <v>0.5</v>
+      </c>
       <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
+      <c r="S21" s="101">
+        <v>0</v>
+      </c>
       <c r="T21" s="101"/>
       <c r="U21" s="102"/>
-      <c r="V21" s="101"/>
+      <c r="V21" s="101">
+        <v>0.5</v>
+      </c>
       <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
+      <c r="X21" s="101">
+        <v>0.25</v>
+      </c>
       <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101"/>
+      <c r="Z21" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="AA21" s="101">
+        <v>0</v>
+      </c>
       <c r="AB21" s="101"/>
       <c r="AC21" s="101"/>
-      <c r="AD21" s="101"/>
+      <c r="AD21" s="101">
+        <v>0</v>
+      </c>
       <c r="AE21" s="101"/>
-      <c r="AF21" s="101"/>
-      <c r="AG21" s="101"/>
+      <c r="AF21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="101">
+        <v>0.25</v>
+      </c>
       <c r="AH21" s="103">
         <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="228"/>
       <c r="B22" s="100" t="s">
         <v>24</v>
@@ -33622,29 +33730,51 @@
       <c r="P22" s="102">
         <v>0</v>
       </c>
-      <c r="Q22" s="102"/>
+      <c r="Q22" s="102">
+        <v>0</v>
+      </c>
       <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
+      <c r="S22" s="101">
+        <v>0</v>
+      </c>
+      <c r="T22" s="101">
+        <v>0.25</v>
+      </c>
       <c r="U22" s="102"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
+      <c r="V22" s="101">
+        <v>0.75</v>
+      </c>
+      <c r="W22" s="101">
+        <v>0.75</v>
+      </c>
+      <c r="X22" s="101">
+        <v>0</v>
+      </c>
       <c r="Y22" s="101"/>
       <c r="Z22" s="101"/>
-      <c r="AA22" s="101"/>
+      <c r="AA22" s="101">
+        <v>0</v>
+      </c>
       <c r="AB22" s="101"/>
       <c r="AC22" s="101"/>
-      <c r="AD22" s="101"/>
-      <c r="AE22" s="101"/>
-      <c r="AF22" s="101"/>
-      <c r="AG22" s="101"/>
+      <c r="AD22" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="AF22" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="AG22" s="101">
+        <v>0</v>
+      </c>
       <c r="AH22" s="103">
         <f t="shared" ref="AH22:AH26" si="10">AVERAGE(E22:AG22)</f>
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="228"/>
       <c r="B23" s="100" t="s">
         <v>318</v>
@@ -33679,29 +33809,43 @@
       <c r="P23" s="102">
         <v>0.25</v>
       </c>
-      <c r="Q23" s="102"/>
+      <c r="Q23" s="102">
+        <v>0.25</v>
+      </c>
       <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
+      <c r="S23" s="101">
+        <v>0</v>
+      </c>
       <c r="T23" s="101"/>
       <c r="U23" s="102"/>
-      <c r="V23" s="101"/>
+      <c r="V23" s="101">
+        <v>1</v>
+      </c>
       <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
+      <c r="X23" s="101">
+        <v>0</v>
+      </c>
       <c r="Y23" s="101"/>
       <c r="Z23" s="101"/>
-      <c r="AA23" s="101"/>
+      <c r="AA23" s="101">
+        <v>0</v>
+      </c>
       <c r="AB23" s="101"/>
       <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
+      <c r="AD23" s="101">
+        <v>0</v>
+      </c>
       <c r="AE23" s="101"/>
       <c r="AF23" s="101"/>
-      <c r="AG23" s="101"/>
+      <c r="AG23" s="101">
+        <v>0</v>
+      </c>
       <c r="AH23" s="103">
         <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="228"/>
       <c r="B24" s="100" t="s">
         <v>319</v>
@@ -33734,9 +33878,13 @@
       <c r="P24" s="102">
         <v>0</v>
       </c>
-      <c r="Q24" s="102"/>
+      <c r="Q24" s="102">
+        <v>0</v>
+      </c>
       <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
+      <c r="S24" s="101">
+        <v>0</v>
+      </c>
       <c r="T24" s="101"/>
       <c r="U24" s="102"/>
       <c r="V24" s="101"/>
@@ -33756,7 +33904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="228"/>
       <c r="B25" s="100" t="s">
         <v>320</v>
@@ -33789,29 +33937,41 @@
       </c>
       <c r="O25" s="101"/>
       <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
+      <c r="Q25" s="102">
+        <v>0</v>
+      </c>
       <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
+      <c r="S25" s="101">
+        <v>0</v>
+      </c>
       <c r="T25" s="101"/>
       <c r="U25" s="102"/>
-      <c r="V25" s="101"/>
+      <c r="V25" s="101">
+        <v>0.75</v>
+      </c>
       <c r="W25" s="101"/>
       <c r="X25" s="101"/>
       <c r="Y25" s="101"/>
       <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
+      <c r="AA25" s="101">
+        <v>0</v>
+      </c>
       <c r="AB25" s="101"/>
       <c r="AC25" s="101"/>
-      <c r="AD25" s="101"/>
+      <c r="AD25" s="101">
+        <v>0</v>
+      </c>
       <c r="AE25" s="101"/>
-      <c r="AF25" s="101"/>
+      <c r="AF25" s="101">
+        <v>0</v>
+      </c>
       <c r="AG25" s="101"/>
       <c r="AH25" s="103">
         <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="228"/>
       <c r="B26" s="100" t="s">
         <v>380</v>
@@ -33844,29 +34004,43 @@
       </c>
       <c r="O26" s="101"/>
       <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
+      <c r="Q26" s="102">
+        <v>0.25</v>
+      </c>
       <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
+      <c r="S26" s="101">
+        <v>0</v>
+      </c>
       <c r="T26" s="101"/>
       <c r="U26" s="102"/>
-      <c r="V26" s="101"/>
+      <c r="V26" s="101">
+        <v>0</v>
+      </c>
       <c r="W26" s="101"/>
       <c r="X26" s="101"/>
       <c r="Y26" s="101"/>
       <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
+      <c r="AA26" s="101">
+        <v>0</v>
+      </c>
       <c r="AB26" s="101"/>
       <c r="AC26" s="101"/>
-      <c r="AD26" s="101"/>
+      <c r="AD26" s="101">
+        <v>0</v>
+      </c>
       <c r="AE26" s="101"/>
-      <c r="AF26" s="101"/>
-      <c r="AG26" s="101"/>
+      <c r="AF26" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="101">
+        <v>0</v>
+      </c>
       <c r="AH26" s="103">
         <f t="shared" si="10"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>5.7692307692307696E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="228"/>
       <c r="B27" s="100" t="s">
         <v>381</v>
@@ -33899,7 +34073,9 @@
       <c r="P27" s="102">
         <v>0</v>
       </c>
-      <c r="Q27" s="102"/>
+      <c r="Q27" s="102">
+        <v>0</v>
+      </c>
       <c r="R27" s="101"/>
       <c r="S27" s="101"/>
       <c r="T27" s="101"/>
@@ -33912,16 +34088,18 @@
       <c r="AA27" s="101"/>
       <c r="AB27" s="101"/>
       <c r="AC27" s="101"/>
-      <c r="AD27" s="101"/>
+      <c r="AD27" s="101">
+        <v>0</v>
+      </c>
       <c r="AE27" s="101"/>
       <c r="AF27" s="101"/>
       <c r="AG27" s="101"/>
       <c r="AH27" s="103">
         <f t="shared" ref="AH27:AH30" si="11">AVERAGE(E27:AG27)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="228"/>
       <c r="B28" s="100" t="s">
         <v>438</v>
@@ -33956,29 +34134,45 @@
       </c>
       <c r="O28" s="101"/>
       <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
+      <c r="Q28" s="102">
+        <v>0.25</v>
+      </c>
       <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
+      <c r="S28" s="101">
+        <v>0</v>
+      </c>
       <c r="T28" s="101"/>
       <c r="U28" s="102"/>
       <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
+      <c r="W28" s="101">
+        <v>0</v>
+      </c>
       <c r="X28" s="101"/>
       <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
+      <c r="Z28" s="101">
+        <v>0.25</v>
+      </c>
       <c r="AA28" s="101"/>
       <c r="AB28" s="101"/>
       <c r="AC28" s="101"/>
-      <c r="AD28" s="101"/>
-      <c r="AE28" s="101"/>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="101"/>
+      <c r="AD28" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="AE28" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="AF28" s="101">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="101">
+        <v>0.25</v>
+      </c>
       <c r="AH28" s="103">
         <f t="shared" si="11"/>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.18333333333333332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="228"/>
       <c r="B29" s="100" t="s">
         <v>439</v>
@@ -34009,29 +34203,45 @@
       </c>
       <c r="O29" s="101"/>
       <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
+      <c r="Q29" s="102">
+        <v>0.75</v>
+      </c>
       <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
+      <c r="S29" s="101">
+        <v>0</v>
+      </c>
       <c r="T29" s="101"/>
       <c r="U29" s="102"/>
       <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
+      <c r="W29" s="101">
+        <v>0</v>
+      </c>
       <c r="X29" s="101"/>
       <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
+      <c r="Z29" s="101">
+        <v>0.25</v>
+      </c>
       <c r="AA29" s="101"/>
       <c r="AB29" s="101"/>
       <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="101"/>
-      <c r="AG29" s="101"/>
+      <c r="AD29" s="101">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="AF29" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="AG29" s="101">
+        <v>0</v>
+      </c>
       <c r="AH29" s="103">
         <f t="shared" si="11"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.26923076923076922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="228"/>
       <c r="B30" s="100" t="s">
         <v>397</v>
@@ -34062,9 +34272,13 @@
       </c>
       <c r="O30" s="101"/>
       <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
+      <c r="Q30" s="102">
+        <v>0</v>
+      </c>
       <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
+      <c r="S30" s="101">
+        <v>0</v>
+      </c>
       <c r="T30" s="101"/>
       <c r="U30" s="102"/>
       <c r="V30" s="101"/>
@@ -34081,10 +34295,10 @@
       <c r="AG30" s="101"/>
       <c r="AH30" s="103">
         <f t="shared" si="11"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="228"/>
       <c r="B31" s="100" t="s">
         <v>395</v>
@@ -34113,7 +34327,9 @@
       </c>
       <c r="O31" s="101"/>
       <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
+      <c r="Q31" s="102">
+        <v>0</v>
+      </c>
       <c r="R31" s="101"/>
       <c r="S31" s="101"/>
       <c r="T31" s="101"/>
@@ -34132,10 +34348,10 @@
       <c r="AG31" s="101"/>
       <c r="AH31" s="103">
         <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="228"/>
       <c r="B32" s="100" t="s">
         <v>440</v>
@@ -34186,7 +34402,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="228"/>
       <c r="B33" s="100" t="s">
         <v>441</v>
@@ -34237,7 +34453,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="104" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:34" s="104" customFormat="1" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="228"/>
       <c r="B34" s="100" t="s">
         <v>442</v>
@@ -34284,7 +34500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:34" s="10" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="229"/>
       <c r="B35" s="29" t="s">
         <v>430</v>
@@ -34337,39 +34553,87 @@
         <v>443</v>
       </c>
       <c r="C36" s="214"/>
-      <c r="D36" s="213"/>
+      <c r="D36" s="213">
+        <v>1</v>
+      </c>
       <c r="E36" s="215"/>
-      <c r="F36" s="215"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="215"/>
-      <c r="K36" s="215"/>
-      <c r="L36" s="215"/>
-      <c r="M36" s="215"/>
-      <c r="N36" s="215"/>
-      <c r="O36" s="215"/>
-      <c r="P36" s="215"/>
-      <c r="Q36" s="215"/>
+      <c r="F36" s="215">
+        <v>0</v>
+      </c>
+      <c r="G36" s="215">
+        <v>0.25</v>
+      </c>
+      <c r="H36" s="215">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="215">
+        <v>0</v>
+      </c>
+      <c r="J36" s="215">
+        <v>0.75</v>
+      </c>
+      <c r="K36" s="215">
+        <v>0.75</v>
+      </c>
+      <c r="L36" s="215">
+        <v>0.25</v>
+      </c>
+      <c r="M36" s="215">
+        <v>1</v>
+      </c>
+      <c r="N36" s="215">
+        <v>1</v>
+      </c>
+      <c r="O36" s="215">
+        <v>0</v>
+      </c>
+      <c r="P36" s="215">
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="215">
+        <v>1</v>
+      </c>
       <c r="R36" s="215"/>
-      <c r="S36" s="215"/>
-      <c r="T36" s="215"/>
+      <c r="S36" s="215">
+        <v>0.75</v>
+      </c>
+      <c r="T36" s="215">
+        <v>0.5</v>
+      </c>
       <c r="U36" s="215"/>
-      <c r="V36" s="215"/>
-      <c r="W36" s="215"/>
-      <c r="X36" s="215"/>
+      <c r="V36" s="215">
+        <v>1</v>
+      </c>
+      <c r="W36" s="215">
+        <v>1</v>
+      </c>
+      <c r="X36" s="215">
+        <v>0.75</v>
+      </c>
       <c r="Y36" s="215"/>
-      <c r="Z36" s="215"/>
-      <c r="AA36" s="215"/>
+      <c r="Z36" s="215">
+        <v>0.75</v>
+      </c>
+      <c r="AA36" s="215">
+        <v>0</v>
+      </c>
       <c r="AB36" s="215"/>
       <c r="AC36" s="215"/>
-      <c r="AD36" s="215"/>
-      <c r="AE36" s="215"/>
-      <c r="AF36" s="215"/>
-      <c r="AG36" s="215"/>
-      <c r="AH36" s="216" t="e">
+      <c r="AD36" s="215">
+        <v>0.25</v>
+      </c>
+      <c r="AE36" s="215">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="215">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="215">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="216">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.60869565217391308</v>
       </c>
     </row>
     <row r="37" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34378,39 +34642,79 @@
         <v>18</v>
       </c>
       <c r="C37" s="119"/>
-      <c r="D37" s="115"/>
+      <c r="D37" s="115">
+        <v>1</v>
+      </c>
       <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
+      <c r="F37" s="119">
+        <v>0</v>
+      </c>
+      <c r="G37" s="116">
+        <v>0</v>
+      </c>
+      <c r="H37" s="116">
+        <v>0.5</v>
+      </c>
       <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
+      <c r="J37" s="116">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="116">
+        <v>0.5</v>
+      </c>
       <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
+      <c r="M37" s="116">
+        <v>1</v>
+      </c>
+      <c r="N37" s="116">
+        <v>0.75</v>
+      </c>
       <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
+      <c r="P37" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="Q37" s="116">
+        <v>1</v>
+      </c>
       <c r="R37" s="116"/>
-      <c r="S37" s="116"/>
+      <c r="S37" s="116">
+        <v>0.75</v>
+      </c>
       <c r="T37" s="116"/>
       <c r="U37" s="116"/>
-      <c r="V37" s="116"/>
-      <c r="W37" s="116"/>
-      <c r="X37" s="116"/>
+      <c r="V37" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="W37" s="116">
+        <v>0.75</v>
+      </c>
+      <c r="X37" s="116">
+        <v>0.25</v>
+      </c>
       <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="116"/>
+      <c r="Z37" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="AA37" s="116">
+        <v>0.25</v>
+      </c>
       <c r="AB37" s="116"/>
       <c r="AC37" s="116"/>
-      <c r="AD37" s="116"/>
-      <c r="AE37" s="116"/>
-      <c r="AF37" s="116"/>
-      <c r="AG37" s="116"/>
-      <c r="AH37" s="117" t="e">
+      <c r="AD37" s="116">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="116">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="AG37" s="116">
+        <v>0.75</v>
+      </c>
+      <c r="AH37" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.51315789473684215</v>
       </c>
     </row>
     <row r="38" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34419,39 +34723,71 @@
         <v>19</v>
       </c>
       <c r="C38" s="119"/>
-      <c r="D38" s="115"/>
+      <c r="D38" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E38" s="119"/>
       <c r="F38" s="119"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
+      <c r="G38" s="116">
+        <v>0</v>
+      </c>
+      <c r="H38" s="116">
+        <v>0.25</v>
+      </c>
       <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
+      <c r="J38" s="116">
+        <v>0.25</v>
+      </c>
       <c r="K38" s="116"/>
       <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
+      <c r="M38" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="N38" s="116">
+        <v>0.5</v>
+      </c>
       <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
+      <c r="P38" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="Q38" s="116">
+        <v>0.5</v>
+      </c>
       <c r="R38" s="116"/>
-      <c r="S38" s="116"/>
+      <c r="S38" s="116">
+        <v>0</v>
+      </c>
       <c r="T38" s="116"/>
       <c r="U38" s="116"/>
       <c r="V38" s="116"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="116"/>
+      <c r="W38" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="X38" s="116">
+        <v>0.25</v>
+      </c>
       <c r="Y38" s="116"/>
-      <c r="Z38" s="116"/>
+      <c r="Z38" s="116">
+        <v>0.25</v>
+      </c>
       <c r="AA38" s="116"/>
       <c r="AB38" s="116"/>
       <c r="AC38" s="116"/>
-      <c r="AD38" s="116"/>
-      <c r="AE38" s="116"/>
-      <c r="AF38" s="116"/>
-      <c r="AG38" s="116"/>
-      <c r="AH38" s="117" t="e">
+      <c r="AD38" s="116">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="AF38" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="AG38" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="AH38" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34460,39 +34796,65 @@
         <v>20</v>
       </c>
       <c r="C39" s="119"/>
-      <c r="D39" s="115"/>
+      <c r="D39" s="115">
+        <v>1</v>
+      </c>
       <c r="E39" s="119"/>
       <c r="F39" s="119"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
+      <c r="G39" s="116">
+        <v>0</v>
+      </c>
+      <c r="H39" s="116">
+        <v>0</v>
+      </c>
       <c r="I39" s="116"/>
       <c r="J39" s="116"/>
       <c r="K39" s="116"/>
       <c r="L39" s="116"/>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
+      <c r="M39" s="116">
+        <v>1</v>
+      </c>
+      <c r="N39" s="116">
+        <v>1</v>
+      </c>
       <c r="O39" s="116"/>
       <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
+      <c r="Q39" s="116">
+        <v>1</v>
+      </c>
       <c r="R39" s="116"/>
-      <c r="S39" s="116"/>
+      <c r="S39" s="116">
+        <v>0.25</v>
+      </c>
       <c r="T39" s="116"/>
       <c r="U39" s="116"/>
       <c r="V39" s="116"/>
-      <c r="W39" s="116"/>
+      <c r="W39" s="116">
+        <v>0</v>
+      </c>
       <c r="X39" s="116"/>
       <c r="Y39" s="116"/>
-      <c r="Z39" s="116"/>
+      <c r="Z39" s="116">
+        <v>0.5</v>
+      </c>
       <c r="AA39" s="116"/>
       <c r="AB39" s="116"/>
       <c r="AC39" s="116"/>
-      <c r="AD39" s="116"/>
-      <c r="AE39" s="116"/>
-      <c r="AF39" s="116"/>
-      <c r="AG39" s="116"/>
-      <c r="AH39" s="117" t="e">
+      <c r="AD39" s="116">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="116">
+        <v>0.75</v>
+      </c>
+      <c r="AF39" s="116">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="AH39" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="40" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34501,26 +34863,38 @@
         <v>21</v>
       </c>
       <c r="C40" s="119"/>
-      <c r="D40" s="115"/>
+      <c r="D40" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E40" s="119"/>
       <c r="F40" s="119"/>
       <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
+      <c r="H40" s="116">
+        <v>0</v>
+      </c>
       <c r="I40" s="116"/>
       <c r="J40" s="116"/>
       <c r="K40" s="116"/>
       <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
+      <c r="M40" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="N40" s="116">
+        <v>0</v>
+      </c>
       <c r="O40" s="116"/>
       <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
+      <c r="Q40" s="116">
+        <v>0.25</v>
+      </c>
       <c r="R40" s="116"/>
       <c r="S40" s="116"/>
       <c r="T40" s="116"/>
       <c r="U40" s="116"/>
       <c r="V40" s="116"/>
-      <c r="W40" s="116"/>
+      <c r="W40" s="116">
+        <v>0.5</v>
+      </c>
       <c r="X40" s="116"/>
       <c r="Y40" s="116"/>
       <c r="Z40" s="116"/>
@@ -34528,12 +34902,14 @@
       <c r="AB40" s="116"/>
       <c r="AC40" s="116"/>
       <c r="AD40" s="116"/>
-      <c r="AE40" s="116"/>
+      <c r="AE40" s="116">
+        <v>0.5</v>
+      </c>
       <c r="AF40" s="116"/>
       <c r="AG40" s="116"/>
-      <c r="AH40" s="117" t="e">
+      <c r="AH40" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34542,22 +34918,34 @@
         <v>24</v>
       </c>
       <c r="C41" s="119"/>
-      <c r="D41" s="115"/>
+      <c r="D41" s="115">
+        <v>0.25</v>
+      </c>
       <c r="E41" s="119"/>
       <c r="F41" s="119"/>
       <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
+      <c r="H41" s="116">
+        <v>0</v>
+      </c>
       <c r="I41" s="116"/>
       <c r="J41" s="116"/>
       <c r="K41" s="116"/>
       <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
+      <c r="M41" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="N41" s="116">
+        <v>0.25</v>
+      </c>
       <c r="O41" s="116"/>
       <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
+      <c r="Q41" s="116">
+        <v>0.25</v>
+      </c>
       <c r="R41" s="116"/>
-      <c r="S41" s="116"/>
+      <c r="S41" s="116">
+        <v>0</v>
+      </c>
       <c r="T41" s="116"/>
       <c r="U41" s="116"/>
       <c r="V41" s="116"/>
@@ -34569,12 +34957,14 @@
       <c r="AB41" s="116"/>
       <c r="AC41" s="116"/>
       <c r="AD41" s="116"/>
-      <c r="AE41" s="116"/>
+      <c r="AE41" s="116">
+        <v>0.25</v>
+      </c>
       <c r="AF41" s="116"/>
       <c r="AG41" s="116"/>
-      <c r="AH41" s="117" t="e">
+      <c r="AH41" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:34" s="225" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
@@ -34583,7 +34973,9 @@
         <v>318</v>
       </c>
       <c r="C42" s="222"/>
-      <c r="D42" s="221"/>
+      <c r="D42" s="221">
+        <v>1.75</v>
+      </c>
       <c r="E42" s="222"/>
       <c r="F42" s="222"/>
       <c r="G42" s="223"/>
@@ -34592,11 +34984,17 @@
       <c r="J42" s="223"/>
       <c r="K42" s="223"/>
       <c r="L42" s="223"/>
-      <c r="M42" s="223"/>
-      <c r="N42" s="223"/>
+      <c r="M42" s="223">
+        <v>1.25</v>
+      </c>
+      <c r="N42" s="223">
+        <v>0</v>
+      </c>
       <c r="O42" s="223"/>
       <c r="P42" s="223"/>
-      <c r="Q42" s="223"/>
+      <c r="Q42" s="223">
+        <v>0.25</v>
+      </c>
       <c r="R42" s="223"/>
       <c r="S42" s="223"/>
       <c r="T42" s="223"/>
@@ -34610,12 +35008,14 @@
       <c r="AB42" s="223"/>
       <c r="AC42" s="223"/>
       <c r="AD42" s="223"/>
-      <c r="AE42" s="223"/>
+      <c r="AE42" s="223">
+        <v>1.25</v>
+      </c>
       <c r="AF42" s="223"/>
       <c r="AG42" s="223"/>
-      <c r="AH42" s="224" t="e">
+      <c r="AH42" s="224">
         <f t="shared" ref="AH42:AH47" si="12">AVERAGE(E42:AG42)</f>
-        <v>#DIV/0!</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="43" spans="1:34" s="118" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34624,39 +35024,73 @@
         <v>444</v>
       </c>
       <c r="C43" s="119"/>
-      <c r="D43" s="115"/>
+      <c r="D43" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E43" s="119"/>
       <c r="F43" s="119"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
+      <c r="G43" s="116">
+        <v>0</v>
+      </c>
+      <c r="H43" s="116">
+        <v>0</v>
+      </c>
       <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
+      <c r="J43" s="116">
+        <v>0.25</v>
+      </c>
       <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
+      <c r="L43" s="116">
+        <v>0</v>
+      </c>
+      <c r="M43" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="N43" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="O43" s="116">
+        <v>0</v>
+      </c>
+      <c r="P43" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="Q43" s="116">
+        <v>0.5</v>
+      </c>
       <c r="R43" s="116"/>
-      <c r="S43" s="116"/>
-      <c r="T43" s="116"/>
+      <c r="S43" s="116">
+        <v>0</v>
+      </c>
+      <c r="T43" s="116">
+        <v>0.25</v>
+      </c>
       <c r="U43" s="116"/>
       <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="116"/>
+      <c r="W43" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="X43" s="116">
+        <v>0.25</v>
+      </c>
       <c r="Y43" s="116"/>
       <c r="Z43" s="116"/>
       <c r="AA43" s="116"/>
       <c r="AB43" s="116"/>
       <c r="AC43" s="116"/>
       <c r="AD43" s="116"/>
-      <c r="AE43" s="116"/>
-      <c r="AF43" s="116"/>
-      <c r="AG43" s="116"/>
-      <c r="AH43" s="117" t="e">
+      <c r="AE43" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="AF43" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="AG43" s="116">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="117">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="44" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34665,39 +35099,65 @@
         <v>18</v>
       </c>
       <c r="C44" s="119"/>
-      <c r="D44" s="115"/>
+      <c r="D44" s="115">
+        <v>1</v>
+      </c>
       <c r="E44" s="119"/>
       <c r="F44" s="119"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
+      <c r="G44" s="116">
+        <v>0</v>
+      </c>
+      <c r="H44" s="116">
+        <v>0</v>
+      </c>
       <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
+      <c r="J44" s="116">
+        <v>0</v>
+      </c>
       <c r="K44" s="116"/>
       <c r="L44" s="116"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="116"/>
+      <c r="M44" s="116">
+        <v>0.75</v>
+      </c>
+      <c r="N44" s="116">
+        <v>0.75</v>
+      </c>
       <c r="O44" s="116"/>
       <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
+      <c r="Q44" s="116">
+        <v>1</v>
+      </c>
       <c r="R44" s="116"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="116"/>
+      <c r="S44" s="116">
+        <v>0</v>
+      </c>
+      <c r="T44" s="116">
+        <v>0</v>
+      </c>
       <c r="U44" s="116"/>
       <c r="V44" s="116"/>
-      <c r="W44" s="116"/>
-      <c r="X44" s="116"/>
+      <c r="W44" s="116">
+        <v>0</v>
+      </c>
+      <c r="X44" s="116">
+        <v>0</v>
+      </c>
       <c r="Y44" s="116"/>
       <c r="Z44" s="116"/>
       <c r="AA44" s="116"/>
       <c r="AB44" s="116"/>
       <c r="AC44" s="116"/>
       <c r="AD44" s="116"/>
-      <c r="AE44" s="116"/>
+      <c r="AE44" s="116">
+        <v>0</v>
+      </c>
       <c r="AF44" s="116"/>
-      <c r="AG44" s="116"/>
-      <c r="AH44" s="117" t="e">
+      <c r="AG44" s="116">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="117">
         <f t="shared" ref="AH44:AH45" si="13">AVERAGE(E44:AG44)</f>
-        <v>#DIV/0!</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="45" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34706,26 +35166,42 @@
         <v>19</v>
       </c>
       <c r="C45" s="119"/>
-      <c r="D45" s="115"/>
+      <c r="D45" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E45" s="119"/>
       <c r="F45" s="119"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
+      <c r="G45" s="116">
+        <v>0</v>
+      </c>
+      <c r="H45" s="116">
+        <v>0</v>
+      </c>
       <c r="I45" s="116"/>
       <c r="J45" s="116"/>
       <c r="K45" s="116"/>
       <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
+      <c r="M45" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="N45" s="116">
+        <v>0.5</v>
+      </c>
       <c r="O45" s="116"/>
       <c r="P45" s="116"/>
-      <c r="Q45" s="116"/>
+      <c r="Q45" s="116">
+        <v>0.5</v>
+      </c>
       <c r="R45" s="116"/>
-      <c r="S45" s="116"/>
+      <c r="S45" s="116">
+        <v>0.5</v>
+      </c>
       <c r="T45" s="116"/>
       <c r="U45" s="116"/>
       <c r="V45" s="116"/>
-      <c r="W45" s="116"/>
+      <c r="W45" s="116">
+        <v>0</v>
+      </c>
       <c r="X45" s="116"/>
       <c r="Y45" s="116"/>
       <c r="Z45" s="116"/>
@@ -34734,11 +35210,13 @@
       <c r="AC45" s="116"/>
       <c r="AD45" s="116"/>
       <c r="AE45" s="116"/>
-      <c r="AF45" s="116"/>
+      <c r="AF45" s="116">
+        <v>0.25</v>
+      </c>
       <c r="AG45" s="116"/>
-      <c r="AH45" s="117" t="e">
+      <c r="AH45" s="117">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="46" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34747,7 +35225,9 @@
         <v>20</v>
       </c>
       <c r="C46" s="119"/>
-      <c r="D46" s="115"/>
+      <c r="D46" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E46" s="119"/>
       <c r="F46" s="119"/>
       <c r="G46" s="116"/>
@@ -34756,8 +35236,12 @@
       <c r="J46" s="116"/>
       <c r="K46" s="116"/>
       <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
+      <c r="M46" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="N46" s="116">
+        <v>0.5</v>
+      </c>
       <c r="O46" s="116"/>
       <c r="P46" s="116"/>
       <c r="Q46" s="116"/>
@@ -34777,9 +35261,9 @@
       <c r="AE46" s="116"/>
       <c r="AF46" s="116"/>
       <c r="AG46" s="116"/>
-      <c r="AH46" s="117" t="e">
+      <c r="AH46" s="117">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34788,7 +35272,9 @@
         <v>21</v>
       </c>
       <c r="C47" s="119"/>
-      <c r="D47" s="115"/>
+      <c r="D47" s="115">
+        <v>1</v>
+      </c>
       <c r="E47" s="119"/>
       <c r="F47" s="119"/>
       <c r="G47" s="116"/>
@@ -34797,8 +35283,12 @@
       <c r="J47" s="116"/>
       <c r="K47" s="116"/>
       <c r="L47" s="116"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="116"/>
+      <c r="M47" s="116">
+        <v>1</v>
+      </c>
+      <c r="N47" s="116">
+        <v>0.5</v>
+      </c>
       <c r="O47" s="116"/>
       <c r="P47" s="116"/>
       <c r="Q47" s="116"/>
@@ -34818,9 +35308,9 @@
       <c r="AE47" s="116"/>
       <c r="AF47" s="116"/>
       <c r="AG47" s="116"/>
-      <c r="AH47" s="117" t="e">
+      <c r="AH47" s="117">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="48" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34829,22 +35319,34 @@
         <v>24</v>
       </c>
       <c r="C48" s="119"/>
-      <c r="D48" s="115"/>
+      <c r="D48" s="115">
+        <v>1</v>
+      </c>
       <c r="E48" s="119"/>
       <c r="F48" s="119"/>
       <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
+      <c r="H48" s="116">
+        <v>0</v>
+      </c>
       <c r="I48" s="116"/>
       <c r="J48" s="116"/>
       <c r="K48" s="116"/>
       <c r="L48" s="116"/>
-      <c r="M48" s="116"/>
-      <c r="N48" s="116"/>
+      <c r="M48" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="N48" s="116">
+        <v>0.25</v>
+      </c>
       <c r="O48" s="116"/>
       <c r="P48" s="116"/>
-      <c r="Q48" s="116"/>
+      <c r="Q48" s="116">
+        <v>0.75</v>
+      </c>
       <c r="R48" s="116"/>
-      <c r="S48" s="116"/>
+      <c r="S48" s="116">
+        <v>0.5</v>
+      </c>
       <c r="T48" s="116"/>
       <c r="U48" s="116"/>
       <c r="V48" s="116"/>
@@ -34856,12 +35358,14 @@
       <c r="AB48" s="116"/>
       <c r="AC48" s="116"/>
       <c r="AD48" s="116"/>
-      <c r="AE48" s="116"/>
+      <c r="AE48" s="116">
+        <v>0</v>
+      </c>
       <c r="AF48" s="116"/>
       <c r="AG48" s="116"/>
-      <c r="AH48" s="117" t="e">
+      <c r="AH48" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="49" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34870,17 +35374,25 @@
         <v>318</v>
       </c>
       <c r="C49" s="119"/>
-      <c r="D49" s="115"/>
+      <c r="D49" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E49" s="119"/>
       <c r="F49" s="119"/>
       <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
+      <c r="H49" s="116">
+        <v>0</v>
+      </c>
       <c r="I49" s="116"/>
       <c r="J49" s="116"/>
       <c r="K49" s="116"/>
       <c r="L49" s="116"/>
-      <c r="M49" s="116"/>
-      <c r="N49" s="116"/>
+      <c r="M49" s="116">
+        <v>0</v>
+      </c>
+      <c r="N49" s="116">
+        <v>0</v>
+      </c>
       <c r="O49" s="116"/>
       <c r="P49" s="116"/>
       <c r="Q49" s="116"/>
@@ -34900,9 +35412,9 @@
       <c r="AE49" s="116"/>
       <c r="AF49" s="116"/>
       <c r="AG49" s="116"/>
-      <c r="AH49" s="117" t="e">
+      <c r="AH49" s="117">
         <f t="shared" ref="AH49" si="14">AVERAGE(E49:AG49)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34911,7 +35423,9 @@
         <v>319</v>
       </c>
       <c r="C50" s="119"/>
-      <c r="D50" s="115"/>
+      <c r="D50" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E50" s="119"/>
       <c r="F50" s="119"/>
       <c r="G50" s="116"/>
@@ -34952,11 +35466,15 @@
         <v>320</v>
       </c>
       <c r="C51" s="222"/>
-      <c r="D51" s="221"/>
+      <c r="D51" s="221">
+        <v>1</v>
+      </c>
       <c r="E51" s="222"/>
       <c r="F51" s="222"/>
       <c r="G51" s="223"/>
-      <c r="H51" s="223"/>
+      <c r="H51" s="223">
+        <v>0</v>
+      </c>
       <c r="I51" s="223"/>
       <c r="J51" s="223"/>
       <c r="K51" s="223"/>
@@ -34982,9 +35500,9 @@
       <c r="AE51" s="223"/>
       <c r="AF51" s="223"/>
       <c r="AG51" s="223"/>
-      <c r="AH51" s="224" t="e">
+      <c r="AH51" s="224">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:34" s="118" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -34993,39 +35511,57 @@
         <v>445</v>
       </c>
       <c r="C52" s="119"/>
-      <c r="D52" s="115"/>
+      <c r="D52" s="115">
+        <v>1</v>
+      </c>
       <c r="E52" s="119"/>
       <c r="F52" s="119"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
+      <c r="G52" s="116">
+        <v>0</v>
+      </c>
+      <c r="H52" s="116">
+        <v>0</v>
+      </c>
       <c r="I52" s="116"/>
       <c r="J52" s="116"/>
       <c r="K52" s="116"/>
       <c r="L52" s="116"/>
-      <c r="M52" s="116"/>
-      <c r="N52" s="116"/>
+      <c r="M52" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="N52" s="116">
+        <v>0</v>
+      </c>
       <c r="O52" s="116"/>
       <c r="P52" s="116"/>
-      <c r="Q52" s="116"/>
+      <c r="Q52" s="116">
+        <v>0.25</v>
+      </c>
       <c r="R52" s="116"/>
       <c r="S52" s="116"/>
       <c r="T52" s="116"/>
       <c r="U52" s="116"/>
       <c r="V52" s="116"/>
-      <c r="W52" s="116"/>
-      <c r="X52" s="116"/>
+      <c r="W52" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="X52" s="116">
+        <v>0.75</v>
+      </c>
       <c r="Y52" s="116"/>
       <c r="Z52" s="116"/>
       <c r="AA52" s="116"/>
       <c r="AB52" s="116"/>
       <c r="AC52" s="116"/>
       <c r="AD52" s="116"/>
-      <c r="AE52" s="116"/>
+      <c r="AE52" s="116">
+        <v>0.75</v>
+      </c>
       <c r="AF52" s="116"/>
       <c r="AG52" s="116"/>
-      <c r="AH52" s="117" t="e">
+      <c r="AH52" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="53" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -35034,27 +35570,51 @@
         <v>18</v>
       </c>
       <c r="C53" s="119"/>
-      <c r="D53" s="115"/>
+      <c r="D53" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E53" s="119"/>
       <c r="F53" s="119"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
+      <c r="G53" s="116">
+        <v>0</v>
+      </c>
+      <c r="H53" s="116">
+        <v>0</v>
+      </c>
       <c r="I53" s="116"/>
-      <c r="J53" s="116"/>
+      <c r="J53" s="116">
+        <v>0</v>
+      </c>
       <c r="K53" s="116"/>
-      <c r="L53" s="116"/>
-      <c r="M53" s="116"/>
-      <c r="N53" s="116"/>
+      <c r="L53" s="116">
+        <v>0</v>
+      </c>
+      <c r="M53" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="N53" s="116">
+        <v>0.25</v>
+      </c>
       <c r="O53" s="116"/>
-      <c r="P53" s="116"/>
-      <c r="Q53" s="116"/>
+      <c r="P53" s="116">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="116">
+        <v>0</v>
+      </c>
       <c r="R53" s="116"/>
       <c r="S53" s="116"/>
-      <c r="T53" s="116"/>
+      <c r="T53" s="116">
+        <v>0.25</v>
+      </c>
       <c r="U53" s="116"/>
       <c r="V53" s="116"/>
-      <c r="W53" s="116"/>
-      <c r="X53" s="116"/>
+      <c r="W53" s="116">
+        <v>0</v>
+      </c>
+      <c r="X53" s="116">
+        <v>0</v>
+      </c>
       <c r="Y53" s="116"/>
       <c r="Z53" s="116"/>
       <c r="AA53" s="116"/>
@@ -35062,11 +35622,13 @@
       <c r="AC53" s="116"/>
       <c r="AD53" s="116"/>
       <c r="AE53" s="116"/>
-      <c r="AF53" s="116"/>
+      <c r="AF53" s="116">
+        <v>0</v>
+      </c>
       <c r="AG53" s="116"/>
-      <c r="AH53" s="117" t="e">
+      <c r="AH53" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="54" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -35075,23 +35637,31 @@
         <v>19</v>
       </c>
       <c r="C54" s="119"/>
-      <c r="D54" s="115"/>
+      <c r="D54" s="115">
+        <v>1</v>
+      </c>
       <c r="E54" s="119"/>
       <c r="F54" s="119"/>
       <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
+      <c r="H54" s="116">
+        <v>0</v>
+      </c>
       <c r="I54" s="116"/>
       <c r="J54" s="116"/>
       <c r="K54" s="116"/>
       <c r="L54" s="116"/>
-      <c r="M54" s="116"/>
+      <c r="M54" s="116">
+        <v>0.5</v>
+      </c>
       <c r="N54" s="116"/>
       <c r="O54" s="116"/>
       <c r="P54" s="116"/>
       <c r="Q54" s="116"/>
       <c r="R54" s="116"/>
       <c r="S54" s="116"/>
-      <c r="T54" s="116"/>
+      <c r="T54" s="116">
+        <v>0.25</v>
+      </c>
       <c r="U54" s="116"/>
       <c r="V54" s="116"/>
       <c r="W54" s="116"/>
@@ -35105,9 +35675,9 @@
       <c r="AE54" s="116"/>
       <c r="AF54" s="116"/>
       <c r="AG54" s="116"/>
-      <c r="AH54" s="117" t="e">
+      <c r="AH54" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="55" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -35116,23 +35686,35 @@
         <v>20</v>
       </c>
       <c r="C55" s="119"/>
-      <c r="D55" s="115"/>
+      <c r="D55" s="115">
+        <v>1</v>
+      </c>
       <c r="E55" s="119"/>
       <c r="F55" s="119"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
+      <c r="G55" s="116">
+        <v>0</v>
+      </c>
+      <c r="H55" s="116">
+        <v>0</v>
+      </c>
       <c r="I55" s="116"/>
       <c r="J55" s="116"/>
       <c r="K55" s="116"/>
       <c r="L55" s="116"/>
-      <c r="M55" s="116"/>
-      <c r="N55" s="116"/>
+      <c r="M55" s="116">
+        <v>0</v>
+      </c>
+      <c r="N55" s="116">
+        <v>0.25</v>
+      </c>
       <c r="O55" s="116"/>
       <c r="P55" s="116"/>
       <c r="Q55" s="116"/>
       <c r="R55" s="116"/>
       <c r="S55" s="116"/>
-      <c r="T55" s="116"/>
+      <c r="T55" s="116">
+        <v>0.5</v>
+      </c>
       <c r="U55" s="116"/>
       <c r="V55" s="116"/>
       <c r="W55" s="116"/>
@@ -35146,9 +35728,9 @@
       <c r="AE55" s="116"/>
       <c r="AF55" s="116"/>
       <c r="AG55" s="116"/>
-      <c r="AH55" s="117" t="e">
+      <c r="AH55" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="56" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -35157,7 +35739,9 @@
         <v>21</v>
       </c>
       <c r="C56" s="119"/>
-      <c r="D56" s="115"/>
+      <c r="D56" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E56" s="119"/>
       <c r="F56" s="119"/>
       <c r="G56" s="116"/>
@@ -35166,7 +35750,9 @@
       <c r="J56" s="116"/>
       <c r="K56" s="116"/>
       <c r="L56" s="116"/>
-      <c r="M56" s="116"/>
+      <c r="M56" s="116">
+        <v>0.5</v>
+      </c>
       <c r="N56" s="116"/>
       <c r="O56" s="116"/>
       <c r="P56" s="116"/>
@@ -35187,9 +35773,9 @@
       <c r="AE56" s="116"/>
       <c r="AF56" s="116"/>
       <c r="AG56" s="116"/>
-      <c r="AH56" s="117" t="e">
+      <c r="AH56" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -35198,7 +35784,9 @@
         <v>24</v>
       </c>
       <c r="C57" s="119"/>
-      <c r="D57" s="115"/>
+      <c r="D57" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E57" s="119"/>
       <c r="F57" s="119"/>
       <c r="G57" s="116"/>
@@ -35207,10 +35795,14 @@
       <c r="J57" s="116"/>
       <c r="K57" s="116"/>
       <c r="L57" s="116"/>
-      <c r="M57" s="116"/>
+      <c r="M57" s="116">
+        <v>0.25</v>
+      </c>
       <c r="N57" s="116"/>
       <c r="O57" s="116"/>
-      <c r="P57" s="116"/>
+      <c r="P57" s="116">
+        <v>0.25</v>
+      </c>
       <c r="Q57" s="116"/>
       <c r="R57" s="116"/>
       <c r="S57" s="116"/>
@@ -35228,9 +35820,9 @@
       <c r="AE57" s="116"/>
       <c r="AF57" s="116"/>
       <c r="AG57" s="116"/>
-      <c r="AH57" s="117" t="e">
+      <c r="AH57" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -35239,11 +35831,15 @@
         <v>318</v>
       </c>
       <c r="C58" s="119"/>
-      <c r="D58" s="115"/>
+      <c r="D58" s="115">
+        <v>0.5</v>
+      </c>
       <c r="E58" s="119"/>
       <c r="F58" s="119"/>
       <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
+      <c r="H58" s="116">
+        <v>0</v>
+      </c>
       <c r="I58" s="116"/>
       <c r="J58" s="116"/>
       <c r="K58" s="116"/>
@@ -35269,9 +35865,9 @@
       <c r="AE58" s="116"/>
       <c r="AF58" s="116"/>
       <c r="AG58" s="116"/>
-      <c r="AH58" s="117" t="e">
+      <c r="AH58" s="117">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:34" s="219" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -35875,51 +36471,51 @@
       </c>
       <c r="F74" s="81">
         <f t="shared" ref="F74:AG74" si="15">F7</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G74" s="81">
         <f t="shared" si="15"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H74" s="81">
         <f>H7</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I74" s="81">
         <f>I7</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J74" s="81">
         <f>J7</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K74" s="81">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L74" s="81">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M74" s="81">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N74" s="81">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O74" s="81">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P74" s="81">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q74" s="81">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R74" s="81" t="str">
         <f t="shared" si="15"/>
@@ -36012,7 +36608,7 @@
   <dimension ref="A1:AB56"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -44333,37 +44929,53 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
     <mergeCell ref="C140:C142"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C122:C124"/>
@@ -44380,53 +44992,37 @@
     <mergeCell ref="C119:C121"/>
     <mergeCell ref="C86:C88"/>
     <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:Y142">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
